--- a/association_rules_with_products.xlsx
+++ b/association_rules_with_products.xlsx
@@ -498,12 +498,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>frozenset({'citric acid sitrun makanan asam sitrat monohydrate'})</t>
+          <t>frozenset({'citric acid sitrun food makanan asam sitrat monohydrate'})</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>frozenset({'baking soda kue sodium bicarbonate'})</t>
+          <t>frozenset({'baking soda kue sodium bicarbonate food'})</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -532,24 +532,24 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>citric acid sitrun makanan asam sitrat monohydrate</t>
+          <t>citric acid sitrun food makanan asam sitrat monohydrate</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>baking soda kue sodium bicarbonate</t>
+          <t>baking soda kue sodium bicarbonate food</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>frozenset({'baking soda kue sodium bicarbonate'})</t>
+          <t>frozenset({'baking soda kue sodium bicarbonate food'})</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>frozenset({'citric acid sitrun makanan asam sitrat monohydrate'})</t>
+          <t>frozenset({'citric acid sitrun food makanan asam sitrat monohydrate'})</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -578,37 +578,37 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>baking soda kue sodium bicarbonate</t>
+          <t>baking soda kue sodium bicarbonate food</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>citric acid sitrun makanan asam sitrat monohydrate</t>
+          <t>citric acid sitrun food makanan asam sitrat monohydrate</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>frozenset({'biodin romindo menguatkan otot stamina daya tahan tubuh hewan sakit kelelahan'})</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>frozenset({'sulpidon sanbe obat pereda sakit hewan analgesik antipiretik'})</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>frozenset({'biodin romindo menguatkan otot stamina daya tahan tubuh hewan sakit kelelahan'})</t>
-        </is>
-      </c>
       <c r="C4" t="n">
+        <v>0.0173630986452967</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.004579278763594733</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.0173630986452967</v>
       </c>
       <c r="E4" t="n">
         <v>0.001908032818164472</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.1098901098901099</v>
       </c>
       <c r="G4" t="n">
         <v>23.99725274725275</v>
@@ -617,44 +617,44 @@
         <v>0.001828522349267865</v>
       </c>
       <c r="I4" t="n">
-        <v>1.684520402322349</v>
+        <v>1.118312168302628</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9627372052903969</v>
+        <v>0.9752621359223301</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
+          <t>biodin romindo menguatkan otot stamina daya tahan tubuh hewan sakit kelelahan</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
           <t>sulpidon sanbe obat pereda sakit hewan analgesik antipiretik</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>biodin romindo menguatkan otot stamina daya tahan tubuh hewan sakit kelelahan</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>frozenset({'sulpidon sanbe obat pereda sakit hewan analgesik antipiretik'})</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>frozenset({'biodin romindo menguatkan otot stamina daya tahan tubuh hewan sakit kelelahan'})</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>frozenset({'sulpidon sanbe obat pereda sakit hewan analgesik antipiretik'})</t>
-        </is>
-      </c>
       <c r="C5" t="n">
+        <v>0.004579278763594733</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.0173630986452967</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.004579278763594733</v>
       </c>
       <c r="E5" t="n">
         <v>0.001908032818164472</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1098901098901099</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="G5" t="n">
         <v>23.99725274725275</v>
@@ -663,19 +663,19 @@
         <v>0.001828522349267865</v>
       </c>
       <c r="I5" t="n">
-        <v>1.118312168302628</v>
+        <v>1.684520402322349</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9752621359223301</v>
+        <v>0.9627372052903969</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
+          <t>sulpidon sanbe obat pereda sakit hewan analgesik antipiretik</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
           <t>biodin romindo menguatkan otot stamina daya tahan tubuh hewan sakit kelelahan</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>sulpidon sanbe obat pereda sakit hewan analgesik antipiretik</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>frozenset({'botol dot cempe kambing domba'})</t>
+          <t>frozenset({'botol dot cempe kambing domba ukuran'})</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -762,7 +762,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>botol dot cempe kambing domba</t>
+          <t>botol dot cempe kambing domba ukuran</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>frozenset({'injekvit b plex vitamin komplek medion produktifitas sistem kekebalan tubuh hewan'})</t>
+          <t>frozenset({'injekvit b plex vitamin komplek medion meningkatkan produktifitas sistem kekebalan tubuh hewan complex kompleks'})</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -859,19 +859,19 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>injekvit b plex vitamin komplek medion produktifitas sistem kekebalan tubuh hewan</t>
+          <t>injekvit b plex vitamin komplek medion meningkatkan produktifitas sistem kekebalan tubuh hewan complex kompleks</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>frozenset({'medoxy obat injeksi ayam kucing sapi domba kuda sakit snot crd berak hijau'})</t>
+          <t>frozenset({'medoxy obat injeksi ayam kucing sapi domba kuda sakit snot ngorok crd berak hijau'})</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>frozenset({'injekvit b plex vitamin komplek medion produktifitas sistem kekebalan tubuh hewan'})</t>
+          <t>frozenset({'injekvit b plex vitamin komplek medion meningkatkan produktifitas sistem kekebalan tubuh hewan complex kompleks'})</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -900,12 +900,12 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>medoxy obat injeksi ayam kucing sapi domba kuda sakit snot crd berak hijau</t>
+          <t>medoxy obat injeksi ayam kucing sapi domba kuda sakit snot ngorok crd berak hijau</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>injekvit b plex vitamin komplek medion produktifitas sistem kekebalan tubuh hewan</t>
+          <t>injekvit b plex vitamin komplek medion meningkatkan produktifitas sistem kekebalan tubuh hewan complex kompleks</t>
         </is>
       </c>
     </row>
@@ -917,7 +917,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>frozenset({'injekvit b plex vitamin komplek medion produktifitas sistem kekebalan tubuh hewan'})</t>
+          <t>frozenset({'injekvit b plex vitamin komplek medion meningkatkan produktifitas sistem kekebalan tubuh hewan complex kompleks'})</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -951,14 +951,14 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>injekvit b plex vitamin komplek medion produktifitas sistem kekebalan tubuh hewan</t>
+          <t>injekvit b plex vitamin komplek medion meningkatkan produktifitas sistem kekebalan tubuh hewan complex kompleks</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>frozenset({'injekvit b plex vitamin komplek medion produktifitas sistem kekebalan tubuh hewan'})</t>
+          <t>frozenset({'injekvit b plex vitamin komplek medion meningkatkan produktifitas sistem kekebalan tubuh hewan complex kompleks'})</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>injekvit b plex vitamin komplek medion produktifitas sistem kekebalan tubuh hewan</t>
+          <t>injekvit b plex vitamin komplek medion meningkatkan produktifitas sistem kekebalan tubuh hewan complex kompleks</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>frozenset({'injekvit b plex vitamin komplek medion produktifitas sistem kekebalan tubuh hewan'})</t>
+          <t>frozenset({'injekvit b plex vitamin komplek medion meningkatkan produktifitas sistem kekebalan tubuh hewan complex kompleks'})</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>injekvit b plex vitamin komplek medion produktifitas sistem kekebalan tubuh hewan</t>
+          <t>injekvit b plex vitamin komplek medion meningkatkan produktifitas sistem kekebalan tubuh hewan complex kompleks</t>
         </is>
       </c>
     </row>
@@ -1096,7 +1096,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>frozenset({'jarum single use onemed biji one med suntikan khusus tenaga medis'})</t>
+          <t>frozenset({'jarum single use onemed biji ukuran one med suntikan khusus tenaga medis'})</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>jarum single use onemed biji one med suntikan khusus tenaga medis</t>
+          <t>jarum single use onemed biji ukuran one med suntikan khusus tenaga medis</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1188,7 +1188,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>frozenset({'tetra chlor kapsul ayam medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas'})</t>
+          <t>frozenset({'tetra chlor kapsul clor ayam medion obat pilek batuk snot ngorok crd korisa diare mencret hewan ternak unggas'})</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>tetra chlor kapsul ayam medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas</t>
+          <t>tetra chlor kapsul clor ayam medion obat pilek batuk snot ngorok crd korisa diare mencret hewan ternak unggas</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1372,25 +1372,25 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>frozenset({'trimezyn kaplet kapsul obat pilek pulorum ayam pneumonia babi'})</t>
+          <t>frozenset({'tetra chlor kapsul clor ayam medion obat pilek batuk snot ngorok crd korisa diare mencret hewan ternak unggas'})</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>frozenset({'tetra chlor kapsul ayam medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas'})</t>
+          <t>frozenset({'trimezyn kaplet kapsul obat pilek ngorok pulorum ayam pneumonia babi'})</t>
         </is>
       </c>
       <c r="C21" t="n">
+        <v>0.009540164090822362</v>
+      </c>
+      <c r="D21" t="n">
         <v>0.004197672199961839</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.009540164090822362</v>
       </c>
       <c r="E21" t="n">
         <v>0.001335622972715131</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3181818181818182</v>
+        <v>0.14</v>
       </c>
       <c r="G21" t="n">
         <v>33.35181818181819</v>
@@ -1399,44 +1399,44 @@
         <v>0.001295576491128011</v>
       </c>
       <c r="I21" t="n">
-        <v>1.452674426000127</v>
+        <v>1.157909683488417</v>
       </c>
       <c r="J21" t="n">
-        <v>0.9741056031533134</v>
+        <v>0.9793598811129151</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>trimezyn kaplet kapsul obat pilek pulorum ayam pneumonia babi</t>
+          <t>tetra chlor kapsul clor ayam medion obat pilek batuk snot ngorok crd korisa diare mencret hewan ternak unggas</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>tetra chlor kapsul ayam medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas</t>
+          <t>trimezyn kaplet kapsul obat pilek ngorok pulorum ayam pneumonia babi</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>frozenset({'tetra chlor kapsul ayam medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas'})</t>
+          <t>frozenset({'trimezyn kaplet kapsul obat pilek ngorok pulorum ayam pneumonia babi'})</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>frozenset({'trimezyn kaplet kapsul obat pilek pulorum ayam pneumonia babi'})</t>
+          <t>frozenset({'tetra chlor kapsul clor ayam medion obat pilek batuk snot ngorok crd korisa diare mencret hewan ternak unggas'})</t>
         </is>
       </c>
       <c r="C22" t="n">
+        <v>0.004197672199961839</v>
+      </c>
+      <c r="D22" t="n">
         <v>0.009540164090822362</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.004197672199961839</v>
       </c>
       <c r="E22" t="n">
         <v>0.001335622972715131</v>
       </c>
       <c r="F22" t="n">
-        <v>0.14</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="G22" t="n">
         <v>33.35181818181819</v>
@@ -1445,44 +1445,44 @@
         <v>0.001295576491128011</v>
       </c>
       <c r="I22" t="n">
-        <v>1.157909683488417</v>
+        <v>1.452674426000127</v>
       </c>
       <c r="J22" t="n">
-        <v>0.9793598811129151</v>
+        <v>0.9741056031533134</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>tetra chlor kapsul ayam medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas</t>
+          <t>trimezyn kaplet kapsul obat pilek ngorok pulorum ayam pneumonia babi</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>trimezyn kaplet kapsul obat pilek pulorum ayam pneumonia babi</t>
+          <t>tetra chlor kapsul clor ayam medion obat pilek batuk snot ngorok crd korisa diare mencret hewan ternak unggas</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>frozenset({'vita plex kaplet vitamin unggas ayam burung'})</t>
+          <t>frozenset({'tetra chlor kapsul clor ayam medion obat pilek batuk snot ngorok crd korisa diare mencret hewan ternak unggas'})</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>frozenset({'tetra chlor kapsul ayam medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas'})</t>
+          <t>frozenset({'vita plex kaplet vitamin unggas ayam burung vitaplex'})</t>
         </is>
       </c>
       <c r="C23" t="n">
+        <v>0.009540164090822362</v>
+      </c>
+      <c r="D23" t="n">
         <v>0.004197672199961839</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.009540164090822362</v>
       </c>
       <c r="E23" t="n">
         <v>0.001335622972715131</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3181818181818182</v>
+        <v>0.14</v>
       </c>
       <c r="G23" t="n">
         <v>33.35181818181819</v>
@@ -1491,44 +1491,44 @@
         <v>0.001295576491128011</v>
       </c>
       <c r="I23" t="n">
-        <v>1.452674426000127</v>
+        <v>1.157909683488417</v>
       </c>
       <c r="J23" t="n">
-        <v>0.9741056031533134</v>
+        <v>0.9793598811129151</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>vita plex kaplet vitamin unggas ayam burung</t>
+          <t>tetra chlor kapsul clor ayam medion obat pilek batuk snot ngorok crd korisa diare mencret hewan ternak unggas</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>tetra chlor kapsul ayam medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas</t>
+          <t>vita plex kaplet vitamin unggas ayam burung vitaplex</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>frozenset({'tetra chlor kapsul ayam medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas'})</t>
+          <t>frozenset({'vita plex kaplet vitamin unggas ayam burung vitaplex'})</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>frozenset({'vita plex kaplet vitamin unggas ayam burung'})</t>
+          <t>frozenset({'tetra chlor kapsul clor ayam medion obat pilek batuk snot ngorok crd korisa diare mencret hewan ternak unggas'})</t>
         </is>
       </c>
       <c r="C24" t="n">
+        <v>0.004197672199961839</v>
+      </c>
+      <c r="D24" t="n">
         <v>0.009540164090822362</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.004197672199961839</v>
       </c>
       <c r="E24" t="n">
         <v>0.001335622972715131</v>
       </c>
       <c r="F24" t="n">
-        <v>0.14</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="G24" t="n">
         <v>33.35181818181819</v>
@@ -1537,19 +1537,19 @@
         <v>0.001295576491128011</v>
       </c>
       <c r="I24" t="n">
-        <v>1.157909683488417</v>
+        <v>1.452674426000127</v>
       </c>
       <c r="J24" t="n">
-        <v>0.9793598811129151</v>
+        <v>0.9741056031533134</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>tetra chlor kapsul ayam medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas</t>
+          <t>vita plex kaplet vitamin unggas ayam burung vitaplex</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>vita plex kaplet vitamin unggas ayam burung</t>
+          <t>tetra chlor kapsul clor ayam medion obat pilek batuk snot ngorok crd korisa diare mencret hewan ternak unggas</t>
         </is>
       </c>
     </row>

--- a/association_rules_with_products.xlsx
+++ b/association_rules_with_products.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,1058 +498,480 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>frozenset({'baking soda kue sodium bicarbonate'})</t>
+          <t>frozenset({'exstra bubble warp premix ternak', 'vita plex kaplet vitamin unggas ayam burung'})</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>frozenset({'citric acid sitrun makanan asam sitrat monohydrate'})</t>
+          <t>frozenset({'obat ayam aneka infeksi babi sapi kerbau repack', 'tetra chlor kapsul ayam medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas'})</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.004197672199961839</v>
+        <v>0.001966568338249754</v>
       </c>
       <c r="D2" t="n">
-        <v>0.006678114863575653</v>
+        <v>0.001966568338249754</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001144819690898683</v>
+        <v>0.001966568338249754</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2727272727272727</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>40.83896103896104</v>
+        <v>508.4999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0011167871537877</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1.365817592062583</v>
+        <v>0.001962700947220748</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J2" t="n">
-        <v>0.9796257265121032</v>
+        <v>1</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>baking soda kue sodium bicarbonate</t>
+          <t>exstra bubble warp premix ternak, vita plex kaplet vitamin unggas ayam burung</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>citric acid sitrun makanan asam sitrat monohydrate</t>
+          <t>obat ayam aneka infeksi babi sapi kerbau repack, tetra chlor kapsul ayam medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>frozenset({'citric acid sitrun makanan asam sitrat monohydrate'})</t>
+          <t>frozenset({'injekvit b12 medion obat perbaiki kondisi tubuh anemia tingkatkan makan hewan sapi kambing domba ayam bebek', 'kaloxy vet injeksi antibiotik spektrum pernafasan pencernaan oxy sb kalbe premix ternak', 'sulpidon sanbe obat pereda sakit hewan analgesik antipiretik antispasmodik sapi kambing domba'})</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>frozenset({'baking soda kue sodium bicarbonate'})</t>
+          <t>frozenset({'injekvit b plex vitamin komplek medion produktifitas sistem kekebalan tubuh hewan'})</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.006678114863575653</v>
+        <v>0.001966568338249754</v>
       </c>
       <c r="D3" t="n">
-        <v>0.004197672199961839</v>
+        <v>0.06489675516224189</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001144819690898683</v>
+        <v>0.001966568338249754</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1714285714285714</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>40.83896103896104</v>
+        <v>15.40909090909091</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0011167871537877</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.201830395620736</v>
+        <v>0.001838944434292543</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J3" t="n">
-        <v>0.9820719682417723</v>
+        <v>0.9369458128078817</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>citric acid sitrun makanan asam sitrat monohydrate</t>
+          <t>injekvit b12 medion obat perbaiki kondisi tubuh anemia tingkatkan makan hewan sapi kambing domba ayam bebek, kaloxy vet injeksi antibiotik spektrum pernafasan pencernaan oxy sb kalbe premix ternak, sulpidon sanbe obat pereda sakit hewan analgesik antipiretik antispasmodik sapi kambing domba</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>baking soda kue sodium bicarbonate</t>
+          <t>injekvit b plex vitamin komplek medion produktifitas sistem kekebalan tubuh hewan</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>frozenset({'sulpidon sanbe obat pereda sakit hewan analgesik antipiretik'})</t>
+          <t>frozenset({'injekvit b plex vitamin komplek medion produktifitas sistem kekebalan tubuh hewan', 'injekvit b12 medion obat perbaiki kondisi tubuh anemia tingkatkan makan hewan sapi kambing domba ayam bebek', 'sulpidon sanbe obat pereda sakit hewan analgesik antipiretik antispasmodik sapi kambing domba'})</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>frozenset({'biodin romindo menguatkan otot stamina daya tahan tubuh hewan sakit kelelahan'})</t>
+          <t>frozenset({'kaloxy vet injeksi antibiotik spektrum pernafasan pencernaan oxy sb kalbe premix ternak'})</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.004579278763594733</v>
+        <v>0.001966568338249754</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0173630986452967</v>
+        <v>0.00983284169124877</v>
       </c>
       <c r="E4" t="n">
-        <v>0.001908032818164472</v>
+        <v>0.001966568338249754</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4166666666666667</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>23.99725274725275</v>
+        <v>101.7</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001828522349267865</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.684520402322349</v>
+        <v>0.001947231383104722</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J4" t="n">
-        <v>0.9627372052903969</v>
+        <v>0.9921182266009851</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>sulpidon sanbe obat pereda sakit hewan analgesik antipiretik</t>
+          <t>injekvit b plex vitamin komplek medion produktifitas sistem kekebalan tubuh hewan, injekvit b12 medion obat perbaiki kondisi tubuh anemia tingkatkan makan hewan sapi kambing domba ayam bebek, sulpidon sanbe obat pereda sakit hewan analgesik antipiretik antispasmodik sapi kambing domba</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>biodin romindo menguatkan otot stamina daya tahan tubuh hewan sakit kelelahan</t>
+          <t>kaloxy vet injeksi antibiotik spektrum pernafasan pencernaan oxy sb kalbe premix ternak</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>frozenset({'biodin romindo menguatkan otot stamina daya tahan tubuh hewan sakit kelelahan'})</t>
+          <t>frozenset({'injekvit b plex vitamin komplek medion produktifitas sistem kekebalan tubuh hewan', 'kaloxy vet injeksi antibiotik spektrum pernafasan pencernaan oxy sb kalbe premix ternak', 'sulpidon sanbe obat pereda sakit hewan analgesik antipiretik antispasmodik sapi kambing domba'})</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>frozenset({'sulpidon sanbe obat pereda sakit hewan analgesik antipiretik'})</t>
+          <t>frozenset({'injekvit b12 medion obat perbaiki kondisi tubuh anemia tingkatkan makan hewan sapi kambing domba ayam bebek'})</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.0173630986452967</v>
+        <v>0.001966568338249754</v>
       </c>
       <c r="D5" t="n">
-        <v>0.004579278763594733</v>
+        <v>0.02654867256637168</v>
       </c>
       <c r="E5" t="n">
-        <v>0.001908032818164472</v>
+        <v>0.001966568338249754</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1098901098901099</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>23.99725274725275</v>
+        <v>37.66666666666666</v>
       </c>
       <c r="H5" t="n">
-        <v>0.001828522349267865</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.118312168302628</v>
+        <v>0.001914358559358168</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J5" t="n">
-        <v>0.9752621359223301</v>
+        <v>0.9753694581280788</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>biodin romindo menguatkan otot stamina daya tahan tubuh hewan sakit kelelahan</t>
+          <t>injekvit b plex vitamin komplek medion produktifitas sistem kekebalan tubuh hewan, kaloxy vet injeksi antibiotik spektrum pernafasan pencernaan oxy sb kalbe premix ternak, sulpidon sanbe obat pereda sakit hewan analgesik antipiretik antispasmodik sapi kambing domba</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>sulpidon sanbe obat pereda sakit hewan analgesik antipiretik</t>
+          <t>injekvit b12 medion obat perbaiki kondisi tubuh anemia tingkatkan makan hewan sapi kambing domba ayam bebek</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>frozenset({'biodin romindo menguatkan otot stamina daya tahan tubuh hewan sakit kelelahan'})</t>
+          <t>frozenset({'injekvit b plex vitamin komplek medion produktifitas sistem kekebalan tubuh hewan', 'injekvit b12 medion obat perbaiki kondisi tubuh anemia tingkatkan makan hewan sapi kambing domba ayam bebek', 'kaloxy vet injeksi antibiotik spektrum pernafasan pencernaan oxy sb kalbe premix ternak'})</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>frozenset({'syringe spet spuit suntikan plus jarum hewan'})</t>
+          <t>frozenset({'sulpidon sanbe obat pereda sakit hewan analgesik antipiretik antispasmodik sapi kambing domba'})</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.0173630986452967</v>
+        <v>0.001966568338249754</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02327800038160656</v>
+        <v>0.0255653883972468</v>
       </c>
       <c r="E6" t="n">
-        <v>0.001908032818164472</v>
+        <v>0.001966568338249754</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1098901098901099</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>4.720771032246442</v>
+        <v>39.11538461538462</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001503854601273384</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.097304962534245</v>
+        <v>0.001916292254872671</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J6" t="n">
-        <v>0.8020970873786408</v>
+        <v>0.9763546798029556</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>biodin romindo menguatkan otot stamina daya tahan tubuh hewan sakit kelelahan</t>
+          <t>injekvit b plex vitamin komplek medion produktifitas sistem kekebalan tubuh hewan, injekvit b12 medion obat perbaiki kondisi tubuh anemia tingkatkan makan hewan sapi kambing domba ayam bebek, kaloxy vet injeksi antibiotik spektrum pernafasan pencernaan oxy sb kalbe premix ternak</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>syringe spet spuit suntikan plus jarum hewan</t>
+          <t>sulpidon sanbe obat pereda sakit hewan analgesik antipiretik antispasmodik sapi kambing domba</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>frozenset({'botol dot cempe kambing domba'})</t>
+          <t>frozenset({'exstra bubble warp premix ternak', 'tetra chlor kapsul ayam medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas'})</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>frozenset({'susu kalvolac classic 1kg ternak milk replacer kolostrum pedet cempe sapi kambing'})</t>
+          <t>frozenset({'obat ayam aneka infeksi babi sapi kerbau repack', 'vita plex kaplet vitamin unggas ayam burung'})</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.01984354130891051</v>
+        <v>0.001966568338249754</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03033772180881511</v>
+        <v>0.001966568338249754</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00209883609998092</v>
+        <v>0.001966568338249754</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1057692307692308</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>3.486393323657474</v>
+        <v>508.4999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0.001496828264049462</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1.084353515396594</v>
+        <v>0.001962700947220748</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J7" t="n">
-        <v>0.7276089688003256</v>
+        <v>1</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>botol dot cempe kambing domba</t>
+          <t>exstra bubble warp premix ternak, tetra chlor kapsul ayam medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>susu kalvolac classic 1kg ternak milk replacer kolostrum pedet cempe sapi kambing</t>
+          <t>obat ayam aneka infeksi babi sapi kerbau repack, vita plex kaplet vitamin unggas ayam burung</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>frozenset({'extra packing kardus bubble warp'})</t>
+          <t>frozenset({'alat minum kelinci stainless nipple nipel nepel hamster'})</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>frozenset({'syringe spet spuit suntikan plus jarum hewan'})</t>
+          <t>frozenset({'zoovita vitamin kelinci nafsu makan penggemuk bulu tebal'})</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.008586147681740127</v>
+        <v>0.001966568338249754</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02327800038160656</v>
+        <v>0.002949852507374631</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001144819690898683</v>
+        <v>0.001966568338249754</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>5.727868852459015</v>
+        <v>339</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0009449513418866063</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.126986922636608</v>
+        <v>0.001960767251706245</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J8" t="n">
-        <v>0.8325635103926096</v>
+        <v>0.9990147783251232</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>extra packing kardus bubble warp</t>
+          <t>alat minum kelinci stainless nipple nipel nepel hamster</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>syringe spet spuit suntikan plus jarum hewan</t>
+          <t>zoovita vitamin kelinci nafsu makan penggemuk bulu tebal</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>frozenset({'injekvit b12 medion obat perbaiki kondisi tubuh anemia tingkatkan makan hewan sapi kambing domba ayam bebek'})</t>
+          <t>frozenset({'syringe spet spuit suntikan plus jarum hewan', 'coryvit kapsul wonder obat antibiotik ayam unggas burung crd coryza cekres'})</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>frozenset({'injekvit b plex vitamin komplek medion produktifitas sistem kekebalan tubuh hewan'})</t>
+          <t>frozenset({'minyak ikan botol 50capsul fish oil vitamin ayam burung kucing kambing kelinci hamster'})</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.006296508299942759</v>
+        <v>0.001966568338249754</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01717229536348025</v>
+        <v>0.04326450344149459</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001335622972715131</v>
+        <v>0.001966568338249754</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2121212121212121</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>12.35252525252525</v>
+        <v>23.11363636363636</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001227497472429909</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1.247435163577121</v>
+        <v>0.001881485735611614</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J9" t="n">
-        <v>0.9248683344305464</v>
+        <v>0.9586206896551724</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>injekvit b12 medion obat perbaiki kondisi tubuh anemia tingkatkan makan hewan sapi kambing domba ayam bebek</t>
+          <t>syringe spet spuit suntikan plus jarum hewan, coryvit kapsul wonder obat antibiotik ayam unggas burung crd coryza cekres</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>injekvit b plex vitamin komplek medion produktifitas sistem kekebalan tubuh hewan</t>
+          <t>minyak ikan botol 50capsul fish oil vitamin ayam burung kucing kambing kelinci hamster</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>frozenset({'medoxy obat injeksi ayam kucing sapi domba kuda sakit snot crd berak hijau'})</t>
+          <t>frozenset({'vet oxy antibiotik acting sanbe vetoxy obat anti infeksi bakteri hewan', 'vet oxy sb antibiotik hewan sanbe'})</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>frozenset({'injekvit b plex vitamin komplek medion produktifitas sistem kekebalan tubuh hewan'})</t>
+          <t>frozenset({'colibact injeksi inj obat mencret sapi diare kambing domba antibiotik hewan'})</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.003243655790879603</v>
+        <v>0.001966568338249754</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01717229536348025</v>
+        <v>0.00983284169124877</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001144819690898683</v>
+        <v>0.001966568338249754</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3529411764705882</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>20.55294117647058</v>
+        <v>101.7</v>
       </c>
       <c r="H10" t="n">
-        <v>0.001089118675600236</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.518915543529167</v>
+        <v>0.001947231383104722</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J10" t="n">
-        <v>0.9544410413476264</v>
+        <v>0.9921182266009851</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>medoxy obat injeksi ayam kucing sapi domba kuda sakit snot crd berak hijau</t>
+          <t>vet oxy antibiotik acting sanbe vetoxy obat anti infeksi bakteri hewan, vet oxy sb antibiotik hewan sanbe</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>injekvit b plex vitamin komplek medion produktifitas sistem kekebalan tubuh hewan</t>
+          <t>colibact injeksi inj obat mencret sapi diare kambing domba antibiotik hewan</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>frozenset({'syringe spet spuit suntikan plus jarum hewan'})</t>
+          <t>frozenset({'avimix 1kg multivitamin hc feed premix hewan ternak ayam sapi kambing domba babi'})</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>frozenset({'injekvit b plex vitamin komplek medion produktifitas sistem kekebalan tubuh hewan'})</t>
+          <t>frozenset({'natuzyme multi enzim ayam bebek babi sapi kambing ikan'})</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.02327800038160656</v>
+        <v>0.001966568338249754</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01717229536348025</v>
+        <v>0.003933136676499509</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002671245945430261</v>
+        <v>0.001966568338249754</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1147540983606557</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>6.682513661202186</v>
+        <v>254.25</v>
       </c>
       <c r="H11" t="n">
-        <v>0.002271509247406107</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1.110231295978291</v>
+        <v>0.001958833556191742</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J11" t="n">
-        <v>0.8706220522981608</v>
+        <v>0.9980295566502463</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>syringe spet spuit suntikan plus jarum hewan</t>
+          <t>avimix 1kg multivitamin hc feed premix hewan ternak ayam sapi kambing domba babi</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>injekvit b plex vitamin komplek medion produktifitas sistem kekebalan tubuh hewan</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>frozenset({'injekvit b plex vitamin komplek medion produktifitas sistem kekebalan tubuh hewan'})</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>frozenset({'syringe spet spuit suntikan plus jarum hewan'})</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.01717229536348025</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.02327800038160656</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.002671245945430261</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.1555555555555556</v>
-      </c>
-      <c r="G12" t="n">
-        <v>6.682513661202186</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.002271509247406107</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1.156644473232308</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.8652134120975122</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>injekvit b plex vitamin komplek medion produktifitas sistem kekebalan tubuh hewan</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>syringe spet spuit suntikan plus jarum hewan</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>frozenset({'wormectin obat kutu skabies cacing parasit anjing kucing kelinci sapi kambing domba'})</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>frozenset({'injekvit b plex vitamin komplek medion produktifitas sistem kekebalan tubuh hewan'})</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.00553329517267697</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.01717229536348025</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.001144819690898683</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.2068965517241379</v>
-      </c>
-      <c r="G13" t="n">
-        <v>12.04827586206896</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.001049800311860155</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1.239217540628655</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.9221028396009209</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>wormectin obat kutu skabies cacing parasit anjing kucing kelinci sapi kambing domba</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>injekvit b plex vitamin komplek medion produktifitas sistem kekebalan tubuh hewan</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>frozenset({'injekvit b12 medion obat perbaiki kondisi tubuh anemia tingkatkan makan hewan sapi kambing domba ayam bebek'})</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>frozenset({'syringe spet spuit suntikan plus jarum hewan'})</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.006296508299942759</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.02327800038160656</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.001144819690898683</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.1818181818181818</v>
-      </c>
-      <c r="G14" t="n">
-        <v>7.810730253353204</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.000998249568289827</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1.193771332866925</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.8774961597542243</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>injekvit b12 medion obat perbaiki kondisi tubuh anemia tingkatkan makan hewan sapi kambing domba ayam bebek</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>syringe spet spuit suntikan plus jarum hewan</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>frozenset({'jarum single use onemed biji one med suntikan khusus tenaga medis'})</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>frozenset({'syringe spet spuit suntikan plus jarum hewan'})</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.004579278763594733</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.02327800038160656</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.002289639381797367</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G15" t="n">
-        <v>21.47950819672131</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.002183042928990925</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1.953443999236787</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.9578301705961279</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>jarum single use onemed biji one med suntikan khusus tenaga medis</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>syringe spet spuit suntikan plus jarum hewan</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>frozenset({'minyak ikan botol 50capsul fish oil vitamin ayam burung kucing kambing kelinci hamster'})</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>frozenset({'syringe spet spuit suntikan plus jarum hewan'})</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.01354703300896775</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.02327800038160656</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.001908032818164472</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.1408450704225352</v>
-      </c>
-      <c r="G16" t="n">
-        <v>6.050565689217271</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.001592684978612084</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1.136840360211573</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.8461895551257254</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>minyak ikan botol 50capsul fish oil vitamin ayam burung kucing kambing kelinci hamster</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>syringe spet spuit suntikan plus jarum hewan</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>frozenset({'tetra chlor kapsul ayam medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas'})</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>frozenset({'minyak ikan botol 50capsul fish oil vitamin ayam burung kucing kambing kelinci hamster'})</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.009540164090822362</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.01354703300896775</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.001144819690898683</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="G17" t="n">
-        <v>8.858028169014085</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.001015578773049344</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1.120969280671628</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.8956527322930714</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>tetra chlor kapsul ayam medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>minyak ikan botol 50capsul fish oil vitamin ayam burung kucing kambing kelinci hamster</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>frozenset({'syringe spet spuit suntikan plus jarum hewan'})</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>frozenset({'wormectin obat jamur parasit cacing scabies kucing anjing kelinci sapi kambing domba'})</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>0.02327800038160656</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.0169814920816638</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.002480442663613814</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.1065573770491803</v>
-      </c>
-      <c r="G18" t="n">
-        <v>6.274912506907349</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.002085147484456595</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1.100259247394835</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.8606699024749426</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>syringe spet spuit suntikan plus jarum hewan</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>wormectin obat jamur parasit cacing scabies kucing anjing kelinci sapi kambing domba</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>frozenset({'wormectin obat jamur parasit cacing scabies kucing anjing kelinci sapi kambing domba'})</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>frozenset({'syringe spet spuit suntikan plus jarum hewan'})</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>0.0169814920816638</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.02327800038160656</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.002480442663613814</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.1460674157303371</v>
-      </c>
-      <c r="G19" t="n">
-        <v>6.274912506907349</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.002085147484456595</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1.143792867974171</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.8551570711896799</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>wormectin obat jamur parasit cacing scabies kucing anjing kelinci sapi kambing domba</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>syringe spet spuit suntikan plus jarum hewan</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>frozenset({'wormectin obat kutu skabies cacing parasit anjing kucing kelinci sapi kambing domba'})</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>frozenset({'syringe spet spuit suntikan plus jarum hewan'})</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>0.00553329517267697</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.02327800038160656</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.001335622972715131</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.2413793103448276</v>
-      </c>
-      <c r="G20" t="n">
-        <v>10.36941775014132</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.001206818925574014</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1.287497181315155</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.9085900668786318</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>wormectin obat kutu skabies cacing parasit anjing kucing kelinci sapi kambing domba</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>syringe spet spuit suntikan plus jarum hewan</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>frozenset({'trimezyn kaplet kapsul obat pilek pulorum ayam pneumonia babi'})</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>frozenset({'tetra chlor kapsul ayam medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas'})</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>0.004197672199961839</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.009540164090822362</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.001335622972715131</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.3181818181818182</v>
-      </c>
-      <c r="G21" t="n">
-        <v>33.35181818181819</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.001295576491128011</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1.452674426000127</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.9741056031533134</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>trimezyn kaplet kapsul obat pilek pulorum ayam pneumonia babi</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>tetra chlor kapsul ayam medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>frozenset({'tetra chlor kapsul ayam medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas'})</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>frozenset({'trimezyn kaplet kapsul obat pilek pulorum ayam pneumonia babi'})</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>0.009540164090822362</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.004197672199961839</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.001335622972715131</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="G22" t="n">
-        <v>33.35181818181819</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.001295576491128011</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1.157909683488417</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.9793598811129151</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>tetra chlor kapsul ayam medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>trimezyn kaplet kapsul obat pilek pulorum ayam pneumonia babi</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>frozenset({'vita plex kaplet vitamin unggas ayam burung'})</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>frozenset({'tetra chlor kapsul ayam medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas'})</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>0.004197672199961839</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.009540164090822362</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.001335622972715131</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.3181818181818182</v>
-      </c>
-      <c r="G23" t="n">
-        <v>33.35181818181819</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.001295576491128011</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1.452674426000127</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.9741056031533134</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>vita plex kaplet vitamin unggas ayam burung</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>tetra chlor kapsul ayam medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>frozenset({'tetra chlor kapsul ayam medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas'})</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>frozenset({'vita plex kaplet vitamin unggas ayam burung'})</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>0.009540164090822362</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.004197672199961839</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.001335622972715131</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="G24" t="n">
-        <v>33.35181818181819</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.001295576491128011</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1.157909683488417</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.9793598811129151</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>tetra chlor kapsul ayam medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>vita plex kaplet vitamin unggas ayam burung</t>
+          <t>natuzyme multi enzim ayam bebek babi sapi kambing ikan</t>
         </is>
       </c>
     </row>

--- a/association_rules_with_products.xlsx
+++ b/association_rules_with_products.xlsx
@@ -498,19 +498,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>frozenset({'exstra bubble warp premix ternak', 'vita plex kaplet vitamin unggas ayam burung'})</t>
+          <t>frozenset({'herbal promotor hgp unggas jaya jamu meningkatkan pertumbuhan ayam bebek sapi kambing', 'mineral b12 eka farma vitamin ayam petelur pejantan pembibitan breeder'})</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>frozenset({'obat ayam aneka infeksi babi sapi kerbau repack', 'tetra chlor kapsul ayam medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas'})</t>
+          <t>frozenset({'calcium carbonate 1kg kalsium caco3 feed ayam sapi kambing domba burung bebek puyuh'})</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0.001966568338249754</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001966568338249754</v>
+        <v>0.01081612586037365</v>
       </c>
       <c r="E2" t="n">
         <v>0.001966568338249754</v>
@@ -519,10 +519,10 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>508.4999999999999</v>
+        <v>92.45454545454545</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001962700947220748</v>
+        <v>0.001945297687590219</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -530,35 +530,35 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0.9911330049261083</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>exstra bubble warp premix ternak, vita plex kaplet vitamin unggas ayam burung</t>
+          <t>herbal promotor hgp unggas jaya jamu meningkatkan pertumbuhan ayam bebek sapi kambing, mineral b12 eka farma vitamin ayam petelur pejantan pembibitan breeder</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>obat ayam aneka infeksi babi sapi kerbau repack, tetra chlor kapsul ayam medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas</t>
+          <t>calcium carbonate 1kg kalsium caco3 feed ayam sapi kambing domba burung bebek puyuh</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>frozenset({'injekvit b12 medion obat perbaiki kondisi tubuh anemia tingkatkan makan hewan sapi kambing domba ayam bebek', 'kaloxy vet injeksi antibiotik spektrum pernafasan pencernaan oxy sb kalbe premix ternak', 'sulpidon sanbe obat pereda sakit hewan analgesik antipiretik antispasmodik sapi kambing domba'})</t>
+          <t>frozenset({'vita stress vitamin anti stres ayam unggas doc bebek burung vitastress sakit vaksinasi', 'tetra chlor kapsul clor ayam medion obat pilek batuk snot ngorok crd korisa diare mencret hewan ternak unggas'})</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>frozenset({'injekvit b plex vitamin komplek medion produktifitas sistem kekebalan tubuh hewan'})</t>
+          <t>frozenset({'trimezyn kaplet kapsul obat pilek ngorok pulorum ayam pneumonia babi'})</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0.001966568338249754</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06489675516224189</v>
+        <v>0.01474926253687316</v>
       </c>
       <c r="E3" t="n">
         <v>0.001966568338249754</v>
@@ -567,10 +567,10 @@
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>15.40909090909091</v>
+        <v>67.8</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001838944434292543</v>
+        <v>0.001937562905532206</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -578,35 +578,35 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>0.9369458128078817</v>
+        <v>0.987192118226601</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>injekvit b12 medion obat perbaiki kondisi tubuh anemia tingkatkan makan hewan sapi kambing domba ayam bebek, kaloxy vet injeksi antibiotik spektrum pernafasan pencernaan oxy sb kalbe premix ternak, sulpidon sanbe obat pereda sakit hewan analgesik antipiretik antispasmodik sapi kambing domba</t>
+          <t>vita stress vitamin anti stres ayam unggas doc bebek burung vitastress sakit vaksinasi, tetra chlor kapsul clor ayam medion obat pilek batuk snot ngorok crd korisa diare mencret hewan ternak unggas</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>injekvit b plex vitamin komplek medion produktifitas sistem kekebalan tubuh hewan</t>
+          <t>trimezyn kaplet kapsul obat pilek ngorok pulorum ayam pneumonia babi</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>frozenset({'injekvit b plex vitamin komplek medion produktifitas sistem kekebalan tubuh hewan', 'injekvit b12 medion obat perbaiki kondisi tubuh anemia tingkatkan makan hewan sapi kambing domba ayam bebek', 'sulpidon sanbe obat pereda sakit hewan analgesik antipiretik antispasmodik sapi kambing domba'})</t>
+          <t>frozenset({'turbo medion vitamin bebek petelur meningkatkan produktivitas'})</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>frozenset({'kaloxy vet injeksi antibiotik spektrum pernafasan pencernaan oxy sb kalbe premix ternak'})</t>
+          <t>frozenset({'fortevit vitamin dosis ayam unggas optimalkan produktivitas'})</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0.001966568338249754</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00983284169124877</v>
+        <v>0.01474926253687316</v>
       </c>
       <c r="E4" t="n">
         <v>0.001966568338249754</v>
@@ -615,10 +615,10 @@
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>101.7</v>
+        <v>67.8</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001947231383104722</v>
+        <v>0.001937562905532206</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -626,35 +626,35 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>0.9921182266009851</v>
+        <v>0.987192118226601</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>injekvit b plex vitamin komplek medion produktifitas sistem kekebalan tubuh hewan, injekvit b12 medion obat perbaiki kondisi tubuh anemia tingkatkan makan hewan sapi kambing domba ayam bebek, sulpidon sanbe obat pereda sakit hewan analgesik antipiretik antispasmodik sapi kambing domba</t>
+          <t>turbo medion vitamin bebek petelur meningkatkan produktivitas</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>kaloxy vet injeksi antibiotik spektrum pernafasan pencernaan oxy sb kalbe premix ternak</t>
+          <t>fortevit vitamin dosis ayam unggas optimalkan produktivitas</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>frozenset({'injekvit b plex vitamin komplek medion produktifitas sistem kekebalan tubuh hewan', 'kaloxy vet injeksi antibiotik spektrum pernafasan pencernaan oxy sb kalbe premix ternak', 'sulpidon sanbe obat pereda sakit hewan analgesik antipiretik antispasmodik sapi kambing domba'})</t>
+          <t>frozenset({'asam humat kuning humic acid sodium humate humid', 'suplemen vitamin kucing anjing udang ikan sapi ayam', 'mcp monocalcium phosphate nutri phos mineral makro unggas ayam bebek puyuh kambing'})</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>frozenset({'injekvit b12 medion obat perbaiki kondisi tubuh anemia tingkatkan makan hewan sapi kambing domba ayam bebek'})</t>
+          <t>frozenset({'asam fulvat bio fulvic acid pupuk organik serbuk halus air penyubur tanaman'})</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0.001966568338249754</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02654867256637168</v>
+        <v>0.004916420845624385</v>
       </c>
       <c r="E5" t="n">
         <v>0.001966568338249754</v>
@@ -663,10 +663,10 @@
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>37.66666666666666</v>
+        <v>203.4</v>
       </c>
       <c r="H5" t="n">
-        <v>0.001914358559358168</v>
+        <v>0.001956899860677238</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -674,35 +674,35 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>0.9753694581280788</v>
+        <v>0.9970443349753695</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>injekvit b plex vitamin komplek medion produktifitas sistem kekebalan tubuh hewan, kaloxy vet injeksi antibiotik spektrum pernafasan pencernaan oxy sb kalbe premix ternak, sulpidon sanbe obat pereda sakit hewan analgesik antipiretik antispasmodik sapi kambing domba</t>
+          <t>asam humat kuning humic acid sodium humate humid, suplemen vitamin kucing anjing udang ikan sapi ayam, mcp monocalcium phosphate nutri phos mineral makro unggas ayam bebek puyuh kambing</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>injekvit b12 medion obat perbaiki kondisi tubuh anemia tingkatkan makan hewan sapi kambing domba ayam bebek</t>
+          <t>asam fulvat bio fulvic acid pupuk organik serbuk halus air penyubur tanaman</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>frozenset({'injekvit b plex vitamin komplek medion produktifitas sistem kekebalan tubuh hewan', 'injekvit b12 medion obat perbaiki kondisi tubuh anemia tingkatkan makan hewan sapi kambing domba ayam bebek', 'kaloxy vet injeksi antibiotik spektrum pernafasan pencernaan oxy sb kalbe premix ternak'})</t>
+          <t>frozenset({'suplemen vitamin kucing anjing udang ikan sapi ayam', 'asam fulvat bio fulvic acid pupuk organik serbuk halus air penyubur tanaman'})</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>frozenset({'sulpidon sanbe obat pereda sakit hewan analgesik antipiretik antispasmodik sapi kambing domba'})</t>
+          <t>frozenset({'asam humat kuning humic acid sodium humate humid'})</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0.001966568338249754</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0255653883972468</v>
+        <v>0.002949852507374631</v>
       </c>
       <c r="E6" t="n">
         <v>0.001966568338249754</v>
@@ -711,10 +711,10 @@
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>39.11538461538462</v>
+        <v>339</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001916292254872671</v>
+        <v>0.001960767251706245</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -722,47 +722,47 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>0.9763546798029556</v>
+        <v>0.9990147783251232</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>injekvit b plex vitamin komplek medion produktifitas sistem kekebalan tubuh hewan, injekvit b12 medion obat perbaiki kondisi tubuh anemia tingkatkan makan hewan sapi kambing domba ayam bebek, kaloxy vet injeksi antibiotik spektrum pernafasan pencernaan oxy sb kalbe premix ternak</t>
+          <t>suplemen vitamin kucing anjing udang ikan sapi ayam, asam fulvat bio fulvic acid pupuk organik serbuk halus air penyubur tanaman</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>sulpidon sanbe obat pereda sakit hewan analgesik antipiretik antispasmodik sapi kambing domba</t>
+          <t>asam humat kuning humic acid sodium humate humid</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>frozenset({'exstra bubble warp premix ternak', 'tetra chlor kapsul ayam medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas'})</t>
+          <t>frozenset({'keprovit ad3e inj vitamin ade konsentrasi hewan sapi kambing domba babi kuda vitol'})</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>frozenset({'obat ayam aneka infeksi babi sapi kerbau repack', 'vita plex kaplet vitamin unggas ayam burung'})</t>
+          <t>frozenset({'flunixin injeksi obat hewan bengkak pincang analgesik anti nyeri piretik meriang inflamasi radang racun vet'})</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.001966568338249754</v>
+        <v>0.002949852507374631</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001966568338249754</v>
+        <v>0.01081612586037365</v>
       </c>
       <c r="E7" t="n">
-        <v>0.001966568338249754</v>
+        <v>0.002949852507374631</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>508.4999999999999</v>
+        <v>92.45454545454545</v>
       </c>
       <c r="H7" t="n">
-        <v>0.001962700947220748</v>
+        <v>0.002917946531385328</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -770,35 +770,35 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0.9921104536489151</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>exstra bubble warp premix ternak, tetra chlor kapsul ayam medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas</t>
+          <t>keprovit ad3e inj vitamin ade konsentrasi hewan sapi kambing domba babi kuda vitol</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>obat ayam aneka infeksi babi sapi kerbau repack, vita plex kaplet vitamin unggas ayam burung</t>
+          <t>flunixin injeksi obat hewan bengkak pincang analgesik anti nyeri piretik meriang inflamasi radang racun vet</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>frozenset({'alat minum kelinci stainless nipple nipel nepel hamster'})</t>
+          <t>frozenset({'vita stress vitamin anti stres ayam unggas doc bebek burung vitastress sakit vaksinasi', 'trimezyn kaplet kapsul obat pilek ngorok pulorum ayam pneumonia babi'})</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>frozenset({'zoovita vitamin kelinci nafsu makan penggemuk bulu tebal'})</t>
+          <t>frozenset({'tetra chlor kapsul clor ayam medion obat pilek batuk snot ngorok crd korisa diare mencret hewan ternak unggas'})</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0.001966568338249754</v>
       </c>
       <c r="D8" t="n">
-        <v>0.002949852507374631</v>
+        <v>0.0255653883972468</v>
       </c>
       <c r="E8" t="n">
         <v>0.001966568338249754</v>
@@ -807,10 +807,10 @@
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>339</v>
+        <v>39.11538461538462</v>
       </c>
       <c r="H8" t="n">
-        <v>0.001960767251706245</v>
+        <v>0.001916292254872671</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -818,35 +818,35 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>0.9990147783251232</v>
+        <v>0.9763546798029556</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>alat minum kelinci stainless nipple nipel nepel hamster</t>
+          <t>vita stress vitamin anti stres ayam unggas doc bebek burung vitastress sakit vaksinasi, trimezyn kaplet kapsul obat pilek ngorok pulorum ayam pneumonia babi</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>zoovita vitamin kelinci nafsu makan penggemuk bulu tebal</t>
+          <t>tetra chlor kapsul clor ayam medion obat pilek batuk snot ngorok crd korisa diare mencret hewan ternak unggas</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>frozenset({'syringe spet spuit suntikan plus jarum hewan', 'coryvit kapsul wonder obat antibiotik ayam unggas burung crd coryza cekres'})</t>
+          <t>frozenset({'toxin binder mycoguard plus feed additive pengikat jamur mycotoxin endotoxin pakan ternak unggas'})</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>frozenset({'minyak ikan botol 50capsul fish oil vitamin ayam burung kucing kambing kelinci hamster'})</t>
+          <t>frozenset({'natuzyme multi enzim ayam bebek babi sapi kambing ikan'})</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>0.001966568338249754</v>
       </c>
       <c r="D9" t="n">
-        <v>0.04326450344149459</v>
+        <v>0.003933136676499509</v>
       </c>
       <c r="E9" t="n">
         <v>0.001966568338249754</v>
@@ -855,10 +855,10 @@
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>23.11363636363636</v>
+        <v>254.25</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001881485735611614</v>
+        <v>0.001958833556191742</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -866,35 +866,35 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>0.9586206896551724</v>
+        <v>0.9980295566502463</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>syringe spet spuit suntikan plus jarum hewan, coryvit kapsul wonder obat antibiotik ayam unggas burung crd coryza cekres</t>
+          <t>toxin binder mycoguard plus feed additive pengikat jamur mycotoxin endotoxin pakan ternak unggas</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>minyak ikan botol 50capsul fish oil vitamin ayam burung kucing kambing kelinci hamster</t>
+          <t>natuzyme multi enzim ayam bebek babi sapi kambing ikan</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>frozenset({'vet oxy antibiotik acting sanbe vetoxy obat anti infeksi bakteri hewan', 'vet oxy sb antibiotik hewan sanbe'})</t>
+          <t>frozenset({'flumycin obat ampuh flu batuk pilek sapi kambing domba komplit', 'obat tetes mata meyer hewan mengobati sakit'})</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>frozenset({'colibact injeksi inj obat mencret sapi diare kambing domba antibiotik hewan'})</t>
+          <t>frozenset({'jamu peningkat nafsu makan sapi kerbau kuda kambing domba herbal penggemuk'})</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>0.001966568338249754</v>
       </c>
       <c r="D10" t="n">
-        <v>0.00983284169124877</v>
+        <v>0.02753195673549656</v>
       </c>
       <c r="E10" t="n">
         <v>0.001966568338249754</v>
@@ -903,10 +903,10 @@
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>101.7</v>
+        <v>36.32142857142857</v>
       </c>
       <c r="H10" t="n">
-        <v>0.001947231383104722</v>
+        <v>0.001912424863843665</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -914,35 +914,35 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>0.9921182266009851</v>
+        <v>0.9743842364532019</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>vet oxy antibiotik acting sanbe vetoxy obat anti infeksi bakteri hewan, vet oxy sb antibiotik hewan sanbe</t>
+          <t>flumycin obat ampuh flu batuk pilek sapi kambing domba komplit, obat tetes mata meyer hewan mengobati sakit</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>colibact injeksi inj obat mencret sapi diare kambing domba antibiotik hewan</t>
+          <t>jamu peningkat nafsu makan sapi kerbau kuda kambing domba herbal penggemuk</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>frozenset({'avimix 1kg multivitamin hc feed premix hewan ternak ayam sapi kambing domba babi'})</t>
+          <t>frozenset({'jamu peningkat nafsu makan sapi kerbau kuda kambing domba herbal penggemuk', 'obat tetes mata meyer hewan mengobati sakit'})</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>frozenset({'natuzyme multi enzim ayam bebek babi sapi kambing ikan'})</t>
+          <t>frozenset({'flumycin obat ampuh flu batuk pilek sapi kambing domba komplit'})</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>0.001966568338249754</v>
       </c>
       <c r="D11" t="n">
-        <v>0.003933136676499509</v>
+        <v>0.00688298918387414</v>
       </c>
       <c r="E11" t="n">
         <v>0.001966568338249754</v>
@@ -951,10 +951,10 @@
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>254.25</v>
+        <v>145.2857142857143</v>
       </c>
       <c r="H11" t="n">
-        <v>0.001958833556191742</v>
+        <v>0.001953032469648232</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -962,16 +962,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>0.9980295566502463</v>
+        <v>0.9950738916256158</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>avimix 1kg multivitamin hc feed premix hewan ternak ayam sapi kambing domba babi</t>
+          <t>jamu peningkat nafsu makan sapi kerbau kuda kambing domba herbal penggemuk, obat tetes mata meyer hewan mengobati sakit</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>natuzyme multi enzim ayam bebek babi sapi kambing ikan</t>
+          <t>flumycin obat ampuh flu batuk pilek sapi kambing domba komplit</t>
         </is>
       </c>
     </row>

--- a/association_rules_with_products.xlsx
+++ b/association_rules_with_products.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,368 +498,644 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>frozenset({'jarum single use onemed biji one med khusus tenaga medis'})</t>
+          <t>frozenset({'hematodin injeksi obat penambah darah pemacu'})</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>frozenset({'syringe spet spuit plus jarum hewan'})</t>
+          <t>frozenset({'biodin romindo menguatkan otot stamina daya tahan tubuh hewan sakit kelelahan'})</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.01868239921337267</v>
+        <v>0.01840490797546012</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0943952802359882</v>
+        <v>0.0705521472392638</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01179941002949852</v>
+        <v>0.01226993865030675</v>
       </c>
       <c r="F2" t="n">
-        <v>0.631578947368421</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2" t="n">
-        <v>6.690789473684211</v>
+        <v>9.44927536231884</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01003587972027161</v>
+        <v>0.01097143287289699</v>
       </c>
       <c r="I2" t="n">
-        <v>2.458069953645174</v>
+        <v>2.788343558282208</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8667334669338678</v>
+        <v>0.9109375000000001</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>jarum single use onemed biji one med khusus tenaga medis</t>
+          <t>hematodin injeksi obat penambah darah pemacu</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>syringe spet spuit plus jarum hewan</t>
+          <t>biodin romindo menguatkan otot stamina daya tahan tubuh hewan sakit kelelahan</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>frozenset({'wormectin obat jamur parasit cacing scabies'})</t>
+          <t>frozenset({'biodin romindo menguatkan otot stamina daya tahan tubuh hewan sakit kelelahan'})</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>frozenset({'syringe spet spuit plus jarum hewan'})</t>
+          <t>frozenset({'hematodin injeksi obat penambah darah pemacu'})</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.04129793510324484</v>
+        <v>0.0705521472392638</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0943952802359882</v>
+        <v>0.01840490797546012</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0127826941986234</v>
+        <v>0.01226993865030675</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3095238095238095</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="G3" t="n">
-        <v>3.279017857142857</v>
+        <v>9.449275362318842</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00888436404138495</v>
+        <v>0.01097143287289699</v>
       </c>
       <c r="I3" t="n">
-        <v>1.311565456209948</v>
+        <v>1.188246690345496</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7249704142011834</v>
+        <v>0.9620462046204621</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>wormectin obat jamur parasit cacing scabies</t>
+          <t>biodin romindo menguatkan otot stamina daya tahan tubuh hewan sakit kelelahan</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>syringe spet spuit plus jarum hewan</t>
+          <t>hematodin injeksi obat penambah darah pemacu</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>frozenset({'susu kalvolac classic 1kg ternak milk replacer kolostrum pedet cempe'})</t>
+          <t>frozenset({'biodin romindo menguatkan otot stamina daya tahan tubuh hewan sakit kelelahan'})</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>frozenset({'botol dot cempe'})</t>
+          <t>frozenset({'sulpidon sanbe obat pereda sakit hewan analgesik antipiretik'})</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.03638151425762045</v>
+        <v>0.0705521472392638</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04916420845624386</v>
+        <v>0.02760736196319018</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01081612586037365</v>
+        <v>0.01840490797546012</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2972972972972973</v>
+        <v>0.2608695652173914</v>
       </c>
       <c r="G4" t="n">
-        <v>6.047027027027027</v>
+        <v>9.449275362318842</v>
       </c>
       <c r="H4" t="n">
-        <v>0.009027457509458188</v>
+        <v>0.01645714930934548</v>
       </c>
       <c r="I4" t="n">
-        <v>1.353112472581499</v>
+        <v>1.315590039696861</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8661410018552875</v>
+        <v>0.9620462046204622</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>susu kalvolac classic 1kg ternak milk replacer kolostrum pedet cempe</t>
+          <t>biodin romindo menguatkan otot stamina daya tahan tubuh hewan sakit kelelahan</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>botol dot cempe</t>
+          <t>sulpidon sanbe obat pereda sakit hewan analgesik antipiretik</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>frozenset({'botol dot cempe'})</t>
+          <t>frozenset({'sulpidon sanbe obat pereda sakit hewan analgesik antipiretik'})</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>frozenset({'susu kalvolac classic 1kg ternak milk replacer kolostrum pedet cempe'})</t>
+          <t>frozenset({'biodin romindo menguatkan otot stamina daya tahan tubuh hewan sakit kelelahan'})</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.04916420845624386</v>
+        <v>0.02760736196319018</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03638151425762045</v>
+        <v>0.0705521472392638</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01081612586037365</v>
+        <v>0.01840490797546012</v>
       </c>
       <c r="F5" t="n">
-        <v>0.22</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="G5" t="n">
-        <v>6.047027027027028</v>
+        <v>9.449275362318842</v>
       </c>
       <c r="H5" t="n">
-        <v>0.009027457509458188</v>
+        <v>0.01645714930934548</v>
       </c>
       <c r="I5" t="n">
-        <v>1.235408315054333</v>
+        <v>2.788343558282209</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8777850897809533</v>
+        <v>0.9195583596214512</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>botol dot cempe</t>
+          <t>sulpidon sanbe obat pereda sakit hewan analgesik antipiretik</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>susu kalvolac classic 1kg ternak milk replacer kolostrum pedet cempe</t>
+          <t>biodin romindo menguatkan otot stamina daya tahan tubuh hewan sakit kelelahan</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>frozenset({'syringe spet spuit plus jarum hewan'})</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>frozenset({'injekvit b plex vitamin komplek medion produktifitas sistem kekebalan tubuh hewan'})</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>frozenset({'syringe spet spuit plus jarum hewan'})</t>
-        </is>
-      </c>
       <c r="C6" t="n">
-        <v>0.06489675516224189</v>
+        <v>0.08588957055214724</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0943952802359882</v>
+        <v>0.05521472392638037</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01376597836774828</v>
+        <v>0.01226993865030675</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2121212121212121</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="G6" t="n">
-        <v>2.247159090909091</v>
+        <v>2.587301587301587</v>
       </c>
       <c r="H6" t="n">
-        <v>0.007640030977802143</v>
+        <v>0.00752756972411457</v>
       </c>
       <c r="I6" t="n">
-        <v>1.149421375085092</v>
+        <v>1.102249488752556</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5935105903560163</v>
+        <v>0.6711409395973155</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
+          <t>syringe spet spuit plus jarum hewan</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>injekvit b plex vitamin komplek medion produktifitas sistem kekebalan tubuh hewan</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>syringe spet spuit plus jarum hewan</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>frozenset({'injekvit b plex vitamin komplek medion produktifitas sistem kekebalan tubuh hewan'})</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>frozenset({'syringe spet spuit plus jarum hewan'})</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>frozenset({'injekvit b plex vitamin komplek medion produktifitas sistem kekebalan tubuh hewan'})</t>
-        </is>
-      </c>
       <c r="C7" t="n">
-        <v>0.0943952802359882</v>
+        <v>0.05521472392638037</v>
       </c>
       <c r="D7" t="n">
-        <v>0.06489675516224189</v>
+        <v>0.08588957055214724</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01376597836774828</v>
+        <v>0.01226993865030675</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1458333333333333</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="G7" t="n">
-        <v>2.247159090909091</v>
+        <v>2.587301587301587</v>
       </c>
       <c r="H7" t="n">
-        <v>0.007640030977802143</v>
+        <v>0.00752756972411457</v>
       </c>
       <c r="I7" t="n">
-        <v>1.094755018346644</v>
+        <v>1.175284837861525</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6128431828757562</v>
+        <v>0.6493506493506493</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
+          <t>injekvit b plex vitamin komplek medion produktifitas sistem kekebalan tubuh hewan</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
           <t>syringe spet spuit plus jarum hewan</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>injekvit b plex vitamin komplek medion produktifitas sistem kekebalan tubuh hewan</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>frozenset({'syringe spet spuit plus jarum hewan'})</t>
+          <t>frozenset({'master blok new formula mineral masternya block ternak'})</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>frozenset({'wormectin obat jamur parasit cacing scabies'})</t>
+          <t>frozenset({'mineral blok polos ternak master'})</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.0943952802359882</v>
+        <v>0.05521472392638037</v>
       </c>
       <c r="D8" t="n">
-        <v>0.04129793510324484</v>
+        <v>0.06134969325153374</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0127826941986234</v>
+        <v>0.01226993865030675</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1354166666666667</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="G8" t="n">
-        <v>3.279017857142857</v>
+        <v>3.622222222222223</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00888436404138495</v>
+        <v>0.008882532274455193</v>
       </c>
       <c r="I8" t="n">
-        <v>1.10886021963962</v>
+        <v>1.2068361086766</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7674768228514155</v>
+        <v>0.7662337662337663</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>syringe spet spuit plus jarum hewan</t>
+          <t>master blok new formula mineral masternya block ternak</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>wormectin obat jamur parasit cacing scabies</t>
+          <t>mineral blok polos ternak master</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>frozenset({'mineral blok polos ternak master'})</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>frozenset({'master blok new formula mineral masternya block ternak'})</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.06134969325153374</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.05521472392638037</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.01226993865030675</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3.622222222222222</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.008882532274455193</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.180981595092024</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.7712418300653595</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>mineral blok polos ternak master</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>master blok new formula mineral masternya block ternak</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>frozenset({'wormectin obat kutu skabies cacing parasit'})</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>frozenset({'syringe spet spuit plus jarum hewan'})</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>frozenset({'jarum single use onemed biji one med khusus tenaga medis'})</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.0943952802359882</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.01868239921337267</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.01179941002949852</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="G9" t="n">
-        <v>6.690789473684211</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.01003587972027161</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1.121505829470431</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.9391965255157438</v>
-      </c>
-      <c r="K9" t="inlineStr">
+      <c r="C10" t="n">
+        <v>0.02147239263803681</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.08588957055214724</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.01226993865030675</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G10" t="n">
+        <v>6.653061224489795</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.01042568406789868</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.132924335378323</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.8683385579937303</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>wormectin obat kutu skabies cacing parasit</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
           <t>syringe spet spuit plus jarum hewan</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>jarum single use onemed biji one med khusus tenaga medis</t>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>frozenset({'syringe spet spuit plus jarum hewan'})</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>frozenset({'wormectin obat kutu skabies cacing parasit'})</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.08588957055214724</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.02147239263803681</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.01226993865030675</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="G11" t="n">
+        <v>6.653061224489795</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.01042568406789868</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.14161554192229</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.9295302013422818</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>syringe spet spuit plus jarum hewan</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>wormectin obat kutu skabies cacing parasit</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>frozenset({'tetra chlor kapsul medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas'})</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>frozenset({'trimezyn kaplet kapsul obat pilek pulorum pneumonia'})</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.03680981595092025</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0245398773006135</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.01226993865030675</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12" t="n">
+        <v>13.58333333333333</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.011366630283413</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.46319018404908</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.961783439490446</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>tetra chlor kapsul medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>trimezyn kaplet kapsul obat pilek pulorum pneumonia</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>frozenset({'trimezyn kaplet kapsul obat pilek pulorum pneumonia'})</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>frozenset({'tetra chlor kapsul medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas'})</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0245398773006135</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.03680981595092025</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.01226993865030675</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>13.58333333333333</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.011366630283413</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.926380368098159</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.949685534591195</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>trimezyn kaplet kapsul obat pilek pulorum pneumonia</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>tetra chlor kapsul medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>frozenset({'vita plex kaplet vitamin unggas'})</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>frozenset({'tetra chlor kapsul medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas'})</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0.02147239263803681</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.03680981595092025</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.01533742331288344</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G14" t="n">
+        <v>19.40476190476191</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.01454702849185141</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.371165644171779</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.9692789968652038</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>vita plex kaplet vitamin unggas</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>tetra chlor kapsul medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>frozenset({'tetra chlor kapsul medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas'})</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>frozenset({'vita plex kaplet vitamin unggas'})</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.03680981595092025</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.02147239263803681</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.01533742331288344</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.4166666666666666</v>
+      </c>
+      <c r="G15" t="n">
+        <v>19.4047619047619</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.01454702849185141</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.677475898334794</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.9847133757961783</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>tetra chlor kapsul medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>vita plex kaplet vitamin unggas</t>
         </is>
       </c>
     </row>

--- a/association_rules_with_products.xlsx
+++ b/association_rules_with_products.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,644 +498,368 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>frozenset({'hematodin injeksi obat penambah darah pemacu'})</t>
+          <t>frozenset({'botol dot cempe kambing domba ukuran'})</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>frozenset({'biodin romindo menguatkan otot stamina daya tahan tubuh hewan sakit kelelahan'})</t>
+          <t>frozenset({'susu kalvolac classic 1kg ternak milk replacer kolostrum pedet cempe sapi kambing'})</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.01840490797546012</v>
+        <v>0.04916420845624386</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0705521472392638</v>
+        <v>0.03638151425762045</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01226993865030675</v>
+        <v>0.01081612586037365</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.22</v>
       </c>
       <c r="G2" t="n">
-        <v>9.44927536231884</v>
+        <v>6.047027027027028</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01097143287289699</v>
+        <v>0.009027457509458188</v>
       </c>
       <c r="I2" t="n">
-        <v>2.788343558282208</v>
+        <v>1.235408315054333</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9109375000000001</v>
+        <v>0.8777850897809533</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>hematodin injeksi obat penambah darah pemacu</t>
+          <t>botol dot cempe kambing domba ukuran</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>biodin romindo menguatkan otot stamina daya tahan tubuh hewan sakit kelelahan</t>
+          <t>susu kalvolac classic 1kg ternak milk replacer kolostrum pedet cempe sapi kambing</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>frozenset({'biodin romindo menguatkan otot stamina daya tahan tubuh hewan sakit kelelahan'})</t>
+          <t>frozenset({'susu kalvolac classic 1kg ternak milk replacer kolostrum pedet cempe sapi kambing'})</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>frozenset({'hematodin injeksi obat penambah darah pemacu'})</t>
+          <t>frozenset({'botol dot cempe kambing domba ukuran'})</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.0705521472392638</v>
+        <v>0.03638151425762045</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01840490797546012</v>
+        <v>0.04916420845624386</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01226993865030675</v>
+        <v>0.01081612586037365</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1739130434782609</v>
+        <v>0.2972972972972973</v>
       </c>
       <c r="G3" t="n">
-        <v>9.449275362318842</v>
+        <v>6.047027027027027</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01097143287289699</v>
+        <v>0.009027457509458188</v>
       </c>
       <c r="I3" t="n">
-        <v>1.188246690345496</v>
+        <v>1.353112472581499</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9620462046204621</v>
+        <v>0.8661410018552875</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>biodin romindo menguatkan otot stamina daya tahan tubuh hewan sakit kelelahan</t>
+          <t>susu kalvolac classic 1kg ternak milk replacer kolostrum pedet cempe sapi kambing</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>hematodin injeksi obat penambah darah pemacu</t>
+          <t>botol dot cempe kambing domba ukuran</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>frozenset({'biodin romindo menguatkan otot stamina daya tahan tubuh hewan sakit kelelahan'})</t>
+          <t>frozenset({'syringe spet spuit suntikan plus jarum hewan'})</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>frozenset({'sulpidon sanbe obat pereda sakit hewan analgesik antipiretik'})</t>
+          <t>frozenset({'injekvit b plex vitamin komplek medion meningkatkan produktifitas sistem kekebalan tubuh hewan complex kompleks'})</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.0705521472392638</v>
+        <v>0.0943952802359882</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02760736196319018</v>
+        <v>0.06489675516224189</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01840490797546012</v>
+        <v>0.01376597836774828</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2608695652173914</v>
+        <v>0.1458333333333333</v>
       </c>
       <c r="G4" t="n">
-        <v>9.449275362318842</v>
+        <v>2.247159090909091</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01645714930934548</v>
+        <v>0.007640030977802143</v>
       </c>
       <c r="I4" t="n">
-        <v>1.315590039696861</v>
+        <v>1.094755018346644</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9620462046204622</v>
+        <v>0.6128431828757562</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>biodin romindo menguatkan otot stamina daya tahan tubuh hewan sakit kelelahan</t>
+          <t>syringe spet spuit suntikan plus jarum hewan</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>sulpidon sanbe obat pereda sakit hewan analgesik antipiretik</t>
+          <t>injekvit b plex vitamin komplek medion meningkatkan produktifitas sistem kekebalan tubuh hewan complex kompleks</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>frozenset({'sulpidon sanbe obat pereda sakit hewan analgesik antipiretik'})</t>
+          <t>frozenset({'injekvit b plex vitamin komplek medion meningkatkan produktifitas sistem kekebalan tubuh hewan complex kompleks'})</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>frozenset({'biodin romindo menguatkan otot stamina daya tahan tubuh hewan sakit kelelahan'})</t>
+          <t>frozenset({'syringe spet spuit suntikan plus jarum hewan'})</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.02760736196319018</v>
+        <v>0.06489675516224189</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0705521472392638</v>
+        <v>0.0943952802359882</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01840490797546012</v>
+        <v>0.01376597836774828</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.2121212121212121</v>
       </c>
       <c r="G5" t="n">
-        <v>9.449275362318842</v>
+        <v>2.247159090909091</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01645714930934548</v>
+        <v>0.007640030977802143</v>
       </c>
       <c r="I5" t="n">
-        <v>2.788343558282209</v>
+        <v>1.149421375085092</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9195583596214512</v>
+        <v>0.5935105903560163</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>sulpidon sanbe obat pereda sakit hewan analgesik antipiretik</t>
+          <t>injekvit b plex vitamin komplek medion meningkatkan produktifitas sistem kekebalan tubuh hewan complex kompleks</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>biodin romindo menguatkan otot stamina daya tahan tubuh hewan sakit kelelahan</t>
+          <t>syringe spet spuit suntikan plus jarum hewan</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>frozenset({'syringe spet spuit plus jarum hewan'})</t>
+          <t>frozenset({'syringe spet spuit suntikan plus jarum hewan'})</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>frozenset({'injekvit b plex vitamin komplek medion produktifitas sistem kekebalan tubuh hewan'})</t>
+          <t>frozenset({'jarum single use onemed biji ukuran one med suntikan khusus tenaga medis'})</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.08588957055214724</v>
+        <v>0.0943952802359882</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05521472392638037</v>
+        <v>0.01868239921337267</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01226993865030675</v>
+        <v>0.01179941002949852</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.125</v>
       </c>
       <c r="G6" t="n">
-        <v>2.587301587301587</v>
+        <v>6.690789473684211</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00752756972411457</v>
+        <v>0.01003587972027161</v>
       </c>
       <c r="I6" t="n">
-        <v>1.102249488752556</v>
+        <v>1.121505829470431</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6711409395973155</v>
+        <v>0.9391965255157438</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>syringe spet spuit plus jarum hewan</t>
+          <t>syringe spet spuit suntikan plus jarum hewan</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>injekvit b plex vitamin komplek medion produktifitas sistem kekebalan tubuh hewan</t>
+          <t>jarum single use onemed biji ukuran one med suntikan khusus tenaga medis</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>frozenset({'injekvit b plex vitamin komplek medion produktifitas sistem kekebalan tubuh hewan'})</t>
+          <t>frozenset({'jarum single use onemed biji ukuran one med suntikan khusus tenaga medis'})</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>frozenset({'syringe spet spuit plus jarum hewan'})</t>
+          <t>frozenset({'syringe spet spuit suntikan plus jarum hewan'})</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.05521472392638037</v>
+        <v>0.01868239921337267</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08588957055214724</v>
+        <v>0.0943952802359882</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01226993865030675</v>
+        <v>0.01179941002949852</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="G7" t="n">
-        <v>2.587301587301587</v>
+        <v>6.690789473684211</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00752756972411457</v>
+        <v>0.01003587972027161</v>
       </c>
       <c r="I7" t="n">
-        <v>1.175284837861525</v>
+        <v>2.458069953645174</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6493506493506493</v>
+        <v>0.8667334669338678</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>injekvit b plex vitamin komplek medion produktifitas sistem kekebalan tubuh hewan</t>
+          <t>jarum single use onemed biji ukuran one med suntikan khusus tenaga medis</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>syringe spet spuit plus jarum hewan</t>
+          <t>syringe spet spuit suntikan plus jarum hewan</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>frozenset({'master blok new formula mineral masternya block ternak'})</t>
+          <t>frozenset({'syringe spet spuit suntikan plus jarum hewan'})</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>frozenset({'mineral blok polos ternak master'})</t>
+          <t>frozenset({'wormectin obat jamur parasit cacing scabies kucing anjing kelinci sapi kambing domba'})</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.05521472392638037</v>
+        <v>0.0943952802359882</v>
       </c>
       <c r="D8" t="n">
-        <v>0.06134969325153374</v>
+        <v>0.04129793510324484</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01226993865030675</v>
+        <v>0.0127826941986234</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.1354166666666667</v>
       </c>
       <c r="G8" t="n">
-        <v>3.622222222222223</v>
+        <v>3.279017857142857</v>
       </c>
       <c r="H8" t="n">
-        <v>0.008882532274455193</v>
+        <v>0.00888436404138495</v>
       </c>
       <c r="I8" t="n">
-        <v>1.2068361086766</v>
+        <v>1.10886021963962</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7662337662337663</v>
+        <v>0.7674768228514155</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>master blok new formula mineral masternya block ternak</t>
+          <t>syringe spet spuit suntikan plus jarum hewan</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>mineral blok polos ternak master</t>
+          <t>wormectin obat jamur parasit cacing scabies kucing anjing kelinci sapi kambing domba</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>frozenset({'mineral blok polos ternak master'})</t>
+          <t>frozenset({'wormectin obat jamur parasit cacing scabies kucing anjing kelinci sapi kambing domba'})</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>frozenset({'master blok new formula mineral masternya block ternak'})</t>
+          <t>frozenset({'syringe spet spuit suntikan plus jarum hewan'})</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.06134969325153374</v>
+        <v>0.04129793510324484</v>
       </c>
       <c r="D9" t="n">
-        <v>0.05521472392638037</v>
+        <v>0.0943952802359882</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01226993865030675</v>
+        <v>0.0127826941986234</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2</v>
+        <v>0.3095238095238095</v>
       </c>
       <c r="G9" t="n">
-        <v>3.622222222222222</v>
+        <v>3.279017857142857</v>
       </c>
       <c r="H9" t="n">
-        <v>0.008882532274455193</v>
+        <v>0.00888436404138495</v>
       </c>
       <c r="I9" t="n">
-        <v>1.180981595092024</v>
+        <v>1.311565456209948</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7712418300653595</v>
+        <v>0.7249704142011834</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>mineral blok polos ternak master</t>
+          <t>wormectin obat jamur parasit cacing scabies kucing anjing kelinci sapi kambing domba</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>master blok new formula mineral masternya block ternak</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>frozenset({'wormectin obat kutu skabies cacing parasit'})</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>frozenset({'syringe spet spuit plus jarum hewan'})</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.02147239263803681</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.08588957055214724</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.01226993865030675</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="G10" t="n">
-        <v>6.653061224489795</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.01042568406789868</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2.132924335378323</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.8683385579937303</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>wormectin obat kutu skabies cacing parasit</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>syringe spet spuit plus jarum hewan</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>frozenset({'syringe spet spuit plus jarum hewan'})</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>frozenset({'wormectin obat kutu skabies cacing parasit'})</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.08588957055214724</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.02147239263803681</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.01226993865030675</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="G11" t="n">
-        <v>6.653061224489795</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.01042568406789868</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1.14161554192229</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.9295302013422818</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>syringe spet spuit plus jarum hewan</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>wormectin obat kutu skabies cacing parasit</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>frozenset({'tetra chlor kapsul medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas'})</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>frozenset({'trimezyn kaplet kapsul obat pilek pulorum pneumonia'})</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.03680981595092025</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.0245398773006135</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.01226993865030675</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12" t="n">
-        <v>13.58333333333333</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.011366630283413</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1.46319018404908</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.961783439490446</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>tetra chlor kapsul medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>trimezyn kaplet kapsul obat pilek pulorum pneumonia</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>frozenset({'trimezyn kaplet kapsul obat pilek pulorum pneumonia'})</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>frozenset({'tetra chlor kapsul medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas'})</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0245398773006135</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.03680981595092025</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.01226993865030675</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G13" t="n">
-        <v>13.58333333333333</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.011366630283413</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1.926380368098159</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.949685534591195</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>trimezyn kaplet kapsul obat pilek pulorum pneumonia</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>tetra chlor kapsul medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>frozenset({'vita plex kaplet vitamin unggas'})</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>frozenset({'tetra chlor kapsul medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas'})</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.02147239263803681</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.03680981595092025</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.01533742331288344</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="G14" t="n">
-        <v>19.40476190476191</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.01454702849185141</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3.371165644171779</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.9692789968652038</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>vita plex kaplet vitamin unggas</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>tetra chlor kapsul medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>frozenset({'tetra chlor kapsul medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas'})</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>frozenset({'vita plex kaplet vitamin unggas'})</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.03680981595092025</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.02147239263803681</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.01533742331288344</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.4166666666666666</v>
-      </c>
-      <c r="G15" t="n">
-        <v>19.4047619047619</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.01454702849185141</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1.677475898334794</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.9847133757961783</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>tetra chlor kapsul medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>vita plex kaplet vitamin unggas</t>
+          <t>syringe spet spuit suntikan plus jarum hewan</t>
         </is>
       </c>
     </row>

--- a/association_rules_with_products.xlsx
+++ b/association_rules_with_products.xlsx
@@ -590,25 +590,25 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>frozenset({'injekvit b plex vitamin komplek medion meningkatkan produktifitas sistem kekebalan tubuh hewan complex kompleks'})</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>frozenset({'syringe spet spuit suntikan plus jarum hewan'})</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>frozenset({'injekvit b plex vitamin komplek medion meningkatkan produktifitas sistem kekebalan tubuh hewan complex kompleks'})</t>
-        </is>
-      </c>
       <c r="C4" t="n">
+        <v>0.06489675516224189</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.0943952802359882</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.06489675516224189</v>
       </c>
       <c r="E4" t="n">
         <v>0.01376597836774828</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1458333333333333</v>
+        <v>0.2121212121212121</v>
       </c>
       <c r="G4" t="n">
         <v>2.247159090909091</v>
@@ -617,44 +617,44 @@
         <v>0.007640030977802143</v>
       </c>
       <c r="I4" t="n">
-        <v>1.094755018346644</v>
+        <v>1.149421375085092</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6128431828757562</v>
+        <v>0.5935105903560163</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
+          <t>injekvit b plex vitamin komplek medion meningkatkan produktifitas sistem kekebalan tubuh hewan complex kompleks</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
           <t>syringe spet spuit suntikan plus jarum hewan</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>injekvit b plex vitamin komplek medion meningkatkan produktifitas sistem kekebalan tubuh hewan complex kompleks</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>frozenset({'syringe spet spuit suntikan plus jarum hewan'})</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>frozenset({'injekvit b plex vitamin komplek medion meningkatkan produktifitas sistem kekebalan tubuh hewan complex kompleks'})</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>frozenset({'syringe spet spuit suntikan plus jarum hewan'})</t>
-        </is>
-      </c>
       <c r="C5" t="n">
+        <v>0.0943952802359882</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.06489675516224189</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.0943952802359882</v>
       </c>
       <c r="E5" t="n">
         <v>0.01376597836774828</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2121212121212121</v>
+        <v>0.1458333333333333</v>
       </c>
       <c r="G5" t="n">
         <v>2.247159090909091</v>
@@ -663,44 +663,44 @@
         <v>0.007640030977802143</v>
       </c>
       <c r="I5" t="n">
-        <v>1.149421375085092</v>
+        <v>1.094755018346644</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5935105903560163</v>
+        <v>0.6128431828757562</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
+          <t>syringe spet spuit suntikan plus jarum hewan</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
           <t>injekvit b plex vitamin komplek medion meningkatkan produktifitas sistem kekebalan tubuh hewan complex kompleks</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>syringe spet spuit suntikan plus jarum hewan</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>frozenset({'jarum single use onemed biji ukuran one med suntikan khusus tenaga medis'})</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>frozenset({'syringe spet spuit suntikan plus jarum hewan'})</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>frozenset({'jarum single use onemed biji ukuran one med suntikan khusus tenaga medis'})</t>
-        </is>
-      </c>
       <c r="C6" t="n">
+        <v>0.01868239921337267</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.0943952802359882</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.01868239921337267</v>
       </c>
       <c r="E6" t="n">
         <v>0.01179941002949852</v>
       </c>
       <c r="F6" t="n">
-        <v>0.125</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="G6" t="n">
         <v>6.690789473684211</v>
@@ -709,44 +709,44 @@
         <v>0.01003587972027161</v>
       </c>
       <c r="I6" t="n">
-        <v>1.121505829470431</v>
+        <v>2.458069953645174</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9391965255157438</v>
+        <v>0.8667334669338678</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
+          <t>jarum single use onemed biji ukuran one med suntikan khusus tenaga medis</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>syringe spet spuit suntikan plus jarum hewan</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>jarum single use onemed biji ukuran one med suntikan khusus tenaga medis</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>frozenset({'syringe spet spuit suntikan plus jarum hewan'})</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>frozenset({'jarum single use onemed biji ukuran one med suntikan khusus tenaga medis'})</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>frozenset({'syringe spet spuit suntikan plus jarum hewan'})</t>
-        </is>
-      </c>
       <c r="C7" t="n">
+        <v>0.0943952802359882</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.01868239921337267</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.0943952802359882</v>
       </c>
       <c r="E7" t="n">
         <v>0.01179941002949852</v>
       </c>
       <c r="F7" t="n">
-        <v>0.631578947368421</v>
+        <v>0.125</v>
       </c>
       <c r="G7" t="n">
         <v>6.690789473684211</v>
@@ -755,44 +755,44 @@
         <v>0.01003587972027161</v>
       </c>
       <c r="I7" t="n">
-        <v>2.458069953645174</v>
+        <v>1.121505829470431</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8667334669338678</v>
+        <v>0.9391965255157438</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
+          <t>syringe spet spuit suntikan plus jarum hewan</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
           <t>jarum single use onemed biji ukuran one med suntikan khusus tenaga medis</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>syringe spet spuit suntikan plus jarum hewan</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>frozenset({'wormectin obat jamur parasit cacing scabies kucing anjing kelinci sapi kambing domba'})</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>frozenset({'syringe spet spuit suntikan plus jarum hewan'})</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>frozenset({'wormectin obat jamur parasit cacing scabies kucing anjing kelinci sapi kambing domba'})</t>
-        </is>
-      </c>
       <c r="C8" t="n">
+        <v>0.04129793510324484</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.0943952802359882</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.04129793510324484</v>
       </c>
       <c r="E8" t="n">
         <v>0.0127826941986234</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1354166666666667</v>
+        <v>0.3095238095238095</v>
       </c>
       <c r="G8" t="n">
         <v>3.279017857142857</v>
@@ -801,44 +801,44 @@
         <v>0.00888436404138495</v>
       </c>
       <c r="I8" t="n">
-        <v>1.10886021963962</v>
+        <v>1.311565456209948</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7674768228514155</v>
+        <v>0.7249704142011834</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
+          <t>wormectin obat jamur parasit cacing scabies kucing anjing kelinci sapi kambing domba</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
           <t>syringe spet spuit suntikan plus jarum hewan</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>wormectin obat jamur parasit cacing scabies kucing anjing kelinci sapi kambing domba</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>frozenset({'syringe spet spuit suntikan plus jarum hewan'})</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>frozenset({'wormectin obat jamur parasit cacing scabies kucing anjing kelinci sapi kambing domba'})</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>frozenset({'syringe spet spuit suntikan plus jarum hewan'})</t>
-        </is>
-      </c>
       <c r="C9" t="n">
+        <v>0.0943952802359882</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.04129793510324484</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.0943952802359882</v>
       </c>
       <c r="E9" t="n">
         <v>0.0127826941986234</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3095238095238095</v>
+        <v>0.1354166666666667</v>
       </c>
       <c r="G9" t="n">
         <v>3.279017857142857</v>
@@ -847,19 +847,19 @@
         <v>0.00888436404138495</v>
       </c>
       <c r="I9" t="n">
-        <v>1.311565456209948</v>
+        <v>1.10886021963962</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7249704142011834</v>
+        <v>0.7674768228514155</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
+          <t>syringe spet spuit suntikan plus jarum hewan</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
           <t>wormectin obat jamur parasit cacing scabies kucing anjing kelinci sapi kambing domba</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>syringe spet spuit suntikan plus jarum hewan</t>
         </is>
       </c>
     </row>

--- a/association_rules_with_products.xlsx
+++ b/association_rules_with_products.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,368 +498,322 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>frozenset({'botol dot cempe kambing domba ukuran'})</t>
+          <t>frozenset({'hematodin injeksi obat penambah darah pemacu'})</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>frozenset({'susu kalvolac classic 1kg ternak milk replacer kolostrum pedet cempe sapi kambing'})</t>
+          <t>frozenset({'biodin romindo menguatkan otot stamina daya tahan tubuh hewan sakit kelelahan'})</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.04916420845624386</v>
+        <v>0.01840490797546012</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03638151425762045</v>
+        <v>0.0705521472392638</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01081612586037365</v>
+        <v>0.01226993865030675</v>
       </c>
       <c r="F2" t="n">
-        <v>0.22</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2" t="n">
-        <v>6.047027027027028</v>
+        <v>9.44927536231884</v>
       </c>
       <c r="H2" t="n">
-        <v>0.009027457509458188</v>
+        <v>0.01097143287289699</v>
       </c>
       <c r="I2" t="n">
-        <v>1.235408315054333</v>
+        <v>2.788343558282208</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8777850897809533</v>
+        <v>0.9109375000000001</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>botol dot cempe kambing domba ukuran</t>
+          <t>hematodin injeksi obat penambah darah pemacu</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>susu kalvolac classic 1kg ternak milk replacer kolostrum pedet cempe sapi kambing</t>
+          <t>biodin romindo menguatkan otot stamina daya tahan tubuh hewan sakit kelelahan</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>frozenset({'susu kalvolac classic 1kg ternak milk replacer kolostrum pedet cempe sapi kambing'})</t>
+          <t>frozenset({'sulpidon sanbe obat pereda sakit hewan analgesik antipiretik'})</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>frozenset({'botol dot cempe kambing domba ukuran'})</t>
+          <t>frozenset({'biodin romindo menguatkan otot stamina daya tahan tubuh hewan sakit kelelahan'})</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.03638151425762045</v>
+        <v>0.02760736196319018</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04916420845624386</v>
+        <v>0.0705521472392638</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01081612586037365</v>
+        <v>0.01840490797546012</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2972972972972973</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="G3" t="n">
-        <v>6.047027027027027</v>
+        <v>9.449275362318842</v>
       </c>
       <c r="H3" t="n">
-        <v>0.009027457509458188</v>
+        <v>0.01645714930934548</v>
       </c>
       <c r="I3" t="n">
-        <v>1.353112472581499</v>
+        <v>2.788343558282209</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8661410018552875</v>
+        <v>0.9195583596214512</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>susu kalvolac classic 1kg ternak milk replacer kolostrum pedet cempe sapi kambing</t>
+          <t>sulpidon sanbe obat pereda sakit hewan analgesik antipiretik</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>botol dot cempe kambing domba ukuran</t>
+          <t>biodin romindo menguatkan otot stamina daya tahan tubuh hewan sakit kelelahan</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>frozenset({'injekvit b plex vitamin komplek medion meningkatkan produktifitas sistem kekebalan tubuh hewan complex kompleks'})</t>
+          <t>frozenset({'wormectin obat kutu skabies cacing parasit'})</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>frozenset({'syringe spet spuit suntikan plus jarum hewan'})</t>
+          <t>frozenset({'syringe spet spuit plus jarum hewan'})</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.06489675516224189</v>
+        <v>0.02147239263803681</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0943952802359882</v>
+        <v>0.08588957055214724</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01376597836774828</v>
+        <v>0.01226993865030675</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2121212121212121</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G4" t="n">
-        <v>2.247159090909091</v>
+        <v>6.653061224489795</v>
       </c>
       <c r="H4" t="n">
-        <v>0.007640030977802143</v>
+        <v>0.01042568406789868</v>
       </c>
       <c r="I4" t="n">
-        <v>1.149421375085092</v>
+        <v>2.132924335378323</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5935105903560163</v>
+        <v>0.8683385579937303</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>injekvit b plex vitamin komplek medion meningkatkan produktifitas sistem kekebalan tubuh hewan complex kompleks</t>
+          <t>wormectin obat kutu skabies cacing parasit</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>syringe spet spuit suntikan plus jarum hewan</t>
+          <t>syringe spet spuit plus jarum hewan</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>frozenset({'syringe spet spuit suntikan plus jarum hewan'})</t>
+          <t>frozenset({'tetra chlor kapsul medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas'})</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>frozenset({'injekvit b plex vitamin komplek medion meningkatkan produktifitas sistem kekebalan tubuh hewan complex kompleks'})</t>
+          <t>frozenset({'trimezyn kaplet kapsul obat pilek pulorum pneumonia'})</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.0943952802359882</v>
+        <v>0.03680981595092025</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06489675516224189</v>
+        <v>0.0245398773006135</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01376597836774828</v>
+        <v>0.01226993865030675</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1458333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5" t="n">
-        <v>2.247159090909091</v>
+        <v>13.58333333333333</v>
       </c>
       <c r="H5" t="n">
-        <v>0.007640030977802143</v>
+        <v>0.011366630283413</v>
       </c>
       <c r="I5" t="n">
-        <v>1.094755018346644</v>
+        <v>1.46319018404908</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6128431828757562</v>
+        <v>0.961783439490446</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>syringe spet spuit suntikan plus jarum hewan</t>
+          <t>tetra chlor kapsul medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>injekvit b plex vitamin komplek medion meningkatkan produktifitas sistem kekebalan tubuh hewan complex kompleks</t>
+          <t>trimezyn kaplet kapsul obat pilek pulorum pneumonia</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>frozenset({'jarum single use onemed biji ukuran one med suntikan khusus tenaga medis'})</t>
+          <t>frozenset({'trimezyn kaplet kapsul obat pilek pulorum pneumonia'})</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>frozenset({'syringe spet spuit suntikan plus jarum hewan'})</t>
+          <t>frozenset({'tetra chlor kapsul medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas'})</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.01868239921337267</v>
+        <v>0.0245398773006135</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0943952802359882</v>
+        <v>0.03680981595092025</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01179941002949852</v>
+        <v>0.01226993865030675</v>
       </c>
       <c r="F6" t="n">
-        <v>0.631578947368421</v>
+        <v>0.5</v>
       </c>
       <c r="G6" t="n">
-        <v>6.690789473684211</v>
+        <v>13.58333333333333</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01003587972027161</v>
+        <v>0.011366630283413</v>
       </c>
       <c r="I6" t="n">
-        <v>2.458069953645174</v>
+        <v>1.926380368098159</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8667334669338678</v>
+        <v>0.949685534591195</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>jarum single use onemed biji ukuran one med suntikan khusus tenaga medis</t>
+          <t>trimezyn kaplet kapsul obat pilek pulorum pneumonia</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>syringe spet spuit suntikan plus jarum hewan</t>
+          <t>tetra chlor kapsul medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>frozenset({'syringe spet spuit suntikan plus jarum hewan'})</t>
+          <t>frozenset({'vita plex kaplet vitamin unggas'})</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>frozenset({'jarum single use onemed biji ukuran one med suntikan khusus tenaga medis'})</t>
+          <t>frozenset({'tetra chlor kapsul medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas'})</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.0943952802359882</v>
+        <v>0.02147239263803681</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01868239921337267</v>
+        <v>0.03680981595092025</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01179941002949852</v>
+        <v>0.01533742331288344</v>
       </c>
       <c r="F7" t="n">
-        <v>0.125</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G7" t="n">
-        <v>6.690789473684211</v>
+        <v>19.40476190476191</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01003587972027161</v>
+        <v>0.01454702849185141</v>
       </c>
       <c r="I7" t="n">
-        <v>1.121505829470431</v>
+        <v>3.371165644171779</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9391965255157438</v>
+        <v>0.9692789968652038</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>syringe spet spuit suntikan plus jarum hewan</t>
+          <t>vita plex kaplet vitamin unggas</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>jarum single use onemed biji ukuran one med suntikan khusus tenaga medis</t>
+          <t>tetra chlor kapsul medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>frozenset({'wormectin obat jamur parasit cacing scabies kucing anjing kelinci sapi kambing domba'})</t>
+          <t>frozenset({'tetra chlor kapsul medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas'})</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>frozenset({'syringe spet spuit suntikan plus jarum hewan'})</t>
+          <t>frozenset({'vita plex kaplet vitamin unggas'})</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.04129793510324484</v>
+        <v>0.03680981595092025</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0943952802359882</v>
+        <v>0.02147239263803681</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0127826941986234</v>
+        <v>0.01533742331288344</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3095238095238095</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="G8" t="n">
-        <v>3.279017857142857</v>
+        <v>19.4047619047619</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00888436404138495</v>
+        <v>0.01454702849185141</v>
       </c>
       <c r="I8" t="n">
-        <v>1.311565456209948</v>
+        <v>1.677475898334794</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7249704142011834</v>
+        <v>0.9847133757961783</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>wormectin obat jamur parasit cacing scabies kucing anjing kelinci sapi kambing domba</t>
+          <t>tetra chlor kapsul medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>syringe spet spuit suntikan plus jarum hewan</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>frozenset({'syringe spet spuit suntikan plus jarum hewan'})</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>frozenset({'wormectin obat jamur parasit cacing scabies kucing anjing kelinci sapi kambing domba'})</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.0943952802359882</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.04129793510324484</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.0127826941986234</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.1354166666666667</v>
-      </c>
-      <c r="G9" t="n">
-        <v>3.279017857142857</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.00888436404138495</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1.10886021963962</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.7674768228514155</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>syringe spet spuit suntikan plus jarum hewan</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>wormectin obat jamur parasit cacing scabies kucing anjing kelinci sapi kambing domba</t>
+          <t>vita plex kaplet vitamin unggas</t>
         </is>
       </c>
     </row>

--- a/association_rules_with_products.xlsx
+++ b/association_rules_with_products.xlsx
@@ -498,7 +498,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>frozenset({'hematodin injeksi obat penambah darah pemacu'})</t>
+          <t>frozenset({'hematodin injeksi obat penambah darah'})</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -532,7 +532,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>hematodin injeksi obat penambah darah pemacu</t>
+          <t>hematodin injeksi obat penambah darah</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -590,7 +590,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>frozenset({'wormectin obat kutu skabies cacing parasit'})</t>
+          <t>frozenset({'wormectin obat kutu skabies gudik cacing parasit'})</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>wormectin obat kutu skabies cacing parasit</t>
+          <t>wormectin obat kutu skabies gudik cacing parasit</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -636,25 +636,25 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>frozenset({'trimezyn kaplet kapsul obat pilek pulorum pneumonia'})</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>frozenset({'tetra chlor kapsul medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas'})</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>frozenset({'trimezyn kaplet kapsul obat pilek pulorum pneumonia'})</t>
-        </is>
-      </c>
       <c r="C5" t="n">
+        <v>0.0245398773006135</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.03680981595092025</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.0245398773006135</v>
       </c>
       <c r="E5" t="n">
         <v>0.01226993865030675</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G5" t="n">
         <v>13.58333333333333</v>
@@ -663,44 +663,44 @@
         <v>0.011366630283413</v>
       </c>
       <c r="I5" t="n">
-        <v>1.46319018404908</v>
+        <v>1.926380368098159</v>
       </c>
       <c r="J5" t="n">
-        <v>0.961783439490446</v>
+        <v>0.949685534591195</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
+          <t>trimezyn kaplet kapsul obat pilek pulorum pneumonia</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
           <t>tetra chlor kapsul medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>trimezyn kaplet kapsul obat pilek pulorum pneumonia</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>frozenset({'tetra chlor kapsul medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas'})</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>frozenset({'trimezyn kaplet kapsul obat pilek pulorum pneumonia'})</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>frozenset({'tetra chlor kapsul medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas'})</t>
-        </is>
-      </c>
       <c r="C6" t="n">
+        <v>0.03680981595092025</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.0245398773006135</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.03680981595092025</v>
       </c>
       <c r="E6" t="n">
         <v>0.01226993865030675</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6" t="n">
         <v>13.58333333333333</v>
@@ -709,111 +709,111 @@
         <v>0.011366630283413</v>
       </c>
       <c r="I6" t="n">
-        <v>1.926380368098159</v>
+        <v>1.46319018404908</v>
       </c>
       <c r="J6" t="n">
-        <v>0.949685534591195</v>
+        <v>0.961783439490446</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
+          <t>tetra chlor kapsul medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>trimezyn kaplet kapsul obat pilek pulorum pneumonia</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>tetra chlor kapsul medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>frozenset({'vita plex kaplet vitamin unggas'})</t>
+          <t>frozenset({'tetra chlor kapsul medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas'})</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>frozenset({'tetra chlor kapsul medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas'})</t>
+          <t>frozenset({'vita plex kaplet vitamin unggas lengkap'})</t>
         </is>
       </c>
       <c r="C7" t="n">
+        <v>0.03680981595092025</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.02147239263803681</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.03680981595092025</v>
       </c>
       <c r="E7" t="n">
         <v>0.01533742331288344</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="G7" t="n">
-        <v>19.40476190476191</v>
+        <v>19.4047619047619</v>
       </c>
       <c r="H7" t="n">
         <v>0.01454702849185141</v>
       </c>
       <c r="I7" t="n">
-        <v>3.371165644171779</v>
+        <v>1.677475898334794</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9692789968652038</v>
+        <v>0.9847133757961783</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>vita plex kaplet vitamin unggas</t>
+          <t>tetra chlor kapsul medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>tetra chlor kapsul medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas</t>
+          <t>vita plex kaplet vitamin unggas lengkap</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>frozenset({'vita plex kaplet vitamin unggas lengkap'})</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>frozenset({'tetra chlor kapsul medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas'})</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>frozenset({'vita plex kaplet vitamin unggas'})</t>
-        </is>
-      </c>
       <c r="C8" t="n">
+        <v>0.02147239263803681</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.03680981595092025</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.02147239263803681</v>
       </c>
       <c r="E8" t="n">
         <v>0.01533742331288344</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G8" t="n">
-        <v>19.4047619047619</v>
+        <v>19.40476190476191</v>
       </c>
       <c r="H8" t="n">
         <v>0.01454702849185141</v>
       </c>
       <c r="I8" t="n">
-        <v>1.677475898334794</v>
+        <v>3.371165644171779</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9847133757961783</v>
+        <v>0.9692789968652038</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
+          <t>vita plex kaplet vitamin unggas lengkap</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
           <t>tetra chlor kapsul medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>vita plex kaplet vitamin unggas</t>
         </is>
       </c>
     </row>

--- a/association_rules_with_products.xlsx
+++ b/association_rules_with_products.xlsx
@@ -636,25 +636,25 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>frozenset({'tetra chlor kapsul medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas'})</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>frozenset({'trimezyn kaplet kapsul obat pilek pulorum pneumonia'})</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>frozenset({'tetra chlor kapsul medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas'})</t>
-        </is>
-      </c>
       <c r="C5" t="n">
+        <v>0.03680981595092025</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.0245398773006135</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.03680981595092025</v>
       </c>
       <c r="E5" t="n">
         <v>0.01226993865030675</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5" t="n">
         <v>13.58333333333333</v>
@@ -663,44 +663,44 @@
         <v>0.011366630283413</v>
       </c>
       <c r="I5" t="n">
-        <v>1.926380368098159</v>
+        <v>1.46319018404908</v>
       </c>
       <c r="J5" t="n">
-        <v>0.949685534591195</v>
+        <v>0.961783439490446</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
+          <t>tetra chlor kapsul medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
           <t>trimezyn kaplet kapsul obat pilek pulorum pneumonia</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>tetra chlor kapsul medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>frozenset({'trimezyn kaplet kapsul obat pilek pulorum pneumonia'})</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>frozenset({'tetra chlor kapsul medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas'})</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>frozenset({'trimezyn kaplet kapsul obat pilek pulorum pneumonia'})</t>
-        </is>
-      </c>
       <c r="C6" t="n">
+        <v>0.0245398773006135</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.03680981595092025</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.0245398773006135</v>
       </c>
       <c r="E6" t="n">
         <v>0.01226993865030675</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G6" t="n">
         <v>13.58333333333333</v>
@@ -709,111 +709,111 @@
         <v>0.011366630283413</v>
       </c>
       <c r="I6" t="n">
-        <v>1.46319018404908</v>
+        <v>1.926380368098159</v>
       </c>
       <c r="J6" t="n">
-        <v>0.961783439490446</v>
+        <v>0.949685534591195</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
+          <t>trimezyn kaplet kapsul obat pilek pulorum pneumonia</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>tetra chlor kapsul medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>trimezyn kaplet kapsul obat pilek pulorum pneumonia</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>frozenset({'vita plex kaplet vitamin unggas lengkap'})</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>frozenset({'tetra chlor kapsul medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas'})</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>frozenset({'vita plex kaplet vitamin unggas lengkap'})</t>
-        </is>
-      </c>
       <c r="C7" t="n">
+        <v>0.02147239263803681</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.03680981595092025</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.02147239263803681</v>
       </c>
       <c r="E7" t="n">
         <v>0.01533742331288344</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G7" t="n">
-        <v>19.4047619047619</v>
+        <v>19.40476190476191</v>
       </c>
       <c r="H7" t="n">
         <v>0.01454702849185141</v>
       </c>
       <c r="I7" t="n">
-        <v>1.677475898334794</v>
+        <v>3.371165644171779</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9847133757961783</v>
+        <v>0.9692789968652038</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
+          <t>vita plex kaplet vitamin unggas lengkap</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
           <t>tetra chlor kapsul medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>vita plex kaplet vitamin unggas lengkap</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>frozenset({'tetra chlor kapsul medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas'})</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>frozenset({'vita plex kaplet vitamin unggas lengkap'})</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>frozenset({'tetra chlor kapsul medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas'})</t>
-        </is>
-      </c>
       <c r="C8" t="n">
+        <v>0.03680981595092025</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.02147239263803681</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.03680981595092025</v>
       </c>
       <c r="E8" t="n">
         <v>0.01533742331288344</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="G8" t="n">
-        <v>19.40476190476191</v>
+        <v>19.4047619047619</v>
       </c>
       <c r="H8" t="n">
         <v>0.01454702849185141</v>
       </c>
       <c r="I8" t="n">
-        <v>3.371165644171779</v>
+        <v>1.677475898334794</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9692789968652038</v>
+        <v>0.9847133757961783</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
+          <t>tetra chlor kapsul medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
           <t>vita plex kaplet vitamin unggas lengkap</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>tetra chlor kapsul medion obat pilek batuk snot crd korisa diare mencret hewan ternak unggas</t>
         </is>
       </c>
     </row>
